--- a/market_data.xlsx
+++ b/market_data.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2510"/>
+  <dimension ref="A1:G2828"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61911,6 +61911,7956 @@
         </is>
       </c>
     </row>
+    <row r="2511">
+      <c r="A2511" s="2">
+        <v>45293</v>
+      </c>
+      <c r="B2511">
+        <v>17135.119140625</v>
+      </c>
+      <c r="C2511">
+        <v>17135.119140625</v>
+      </c>
+      <c r="D2511">
+        <v>16725.279296875</v>
+      </c>
+      <c r="E2511">
+        <v>16788.55078125</v>
+      </c>
+      <c r="F2511">
+        <v>1720670000</v>
+      </c>
+      <c r="G2511" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2512">
+      <c r="A2512" s="2">
+        <v>45294</v>
+      </c>
+      <c r="B2512">
+        <v>16624.919921875</v>
+      </c>
+      <c r="C2512">
+        <v>16657.509765625</v>
+      </c>
+      <c r="D2512">
+        <v>16564.80078125</v>
+      </c>
+      <c r="E2512">
+        <v>16646.41015625</v>
+      </c>
+      <c r="F2512">
+        <v>1577461700</v>
+      </c>
+      <c r="G2512" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2513">
+      <c r="A2513" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B2513">
+        <v>16673.400390625</v>
+      </c>
+      <c r="C2513">
+        <v>16673.400390625</v>
+      </c>
+      <c r="D2513">
+        <v>16516.330078125</v>
+      </c>
+      <c r="E2513">
+        <v>16645.98046875</v>
+      </c>
+      <c r="F2513">
+        <v>1789349300</v>
+      </c>
+      <c r="G2513" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2514">
+      <c r="A2514" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B2514">
+        <v>16573.119140625</v>
+      </c>
+      <c r="C2514">
+        <v>16745.73046875</v>
+      </c>
+      <c r="D2514">
+        <v>16455.5703125</v>
+      </c>
+      <c r="E2514">
+        <v>16535.330078125</v>
+      </c>
+      <c r="F2514">
+        <v>1936599800</v>
+      </c>
+      <c r="G2514" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2515">
+      <c r="A2515" s="2">
+        <v>45299</v>
+      </c>
+      <c r="B2515">
+        <v>16581.859375</v>
+      </c>
+      <c r="C2515">
+        <v>16592.060546875</v>
+      </c>
+      <c r="D2515">
+        <v>16144.5595703125</v>
+      </c>
+      <c r="E2515">
+        <v>16224.4501953125</v>
+      </c>
+      <c r="F2515">
+        <v>2227172000</v>
+      </c>
+      <c r="G2515" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2516">
+      <c r="A2516" s="2">
+        <v>45300</v>
+      </c>
+      <c r="B2516">
+        <v>16256.099609375</v>
+      </c>
+      <c r="C2516">
+        <v>16414.7890625</v>
+      </c>
+      <c r="D2516">
+        <v>16190.01953125</v>
+      </c>
+      <c r="E2516">
+        <v>16190.01953125</v>
+      </c>
+      <c r="F2516">
+        <v>1937380500</v>
+      </c>
+      <c r="G2516" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2517">
+      <c r="A2517" s="2">
+        <v>45301</v>
+      </c>
+      <c r="B2517">
+        <v>16143.9697265625</v>
+      </c>
+      <c r="C2517">
+        <v>16247.2998046875</v>
+      </c>
+      <c r="D2517">
+        <v>16036.419921875</v>
+      </c>
+      <c r="E2517">
+        <v>16097.2802734375</v>
+      </c>
+      <c r="F2517">
+        <v>1788113700</v>
+      </c>
+      <c r="G2517" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2518">
+      <c r="A2518" s="2">
+        <v>45302</v>
+      </c>
+      <c r="B2518">
+        <v>16154.169921875</v>
+      </c>
+      <c r="C2518">
+        <v>16459.919921875</v>
+      </c>
+      <c r="D2518">
+        <v>16106.830078125</v>
+      </c>
+      <c r="E2518">
+        <v>16302.0400390625</v>
+      </c>
+      <c r="F2518">
+        <v>1970866100</v>
+      </c>
+      <c r="G2518" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2519">
+      <c r="A2519" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B2519">
+        <v>16216.9697265625</v>
+      </c>
+      <c r="C2519">
+        <v>16393.740234375</v>
+      </c>
+      <c r="D2519">
+        <v>16185.91015625</v>
+      </c>
+      <c r="E2519">
+        <v>16244.580078125</v>
+      </c>
+      <c r="F2519">
+        <v>1534599800</v>
+      </c>
+      <c r="G2519" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2520">
+      <c r="A2520" s="2">
+        <v>45306</v>
+      </c>
+      <c r="B2520">
+        <v>16258.2802734375</v>
+      </c>
+      <c r="C2520">
+        <v>16334.7099609375</v>
+      </c>
+      <c r="D2520">
+        <v>16104.5</v>
+      </c>
+      <c r="E2520">
+        <v>16216.330078125</v>
+      </c>
+      <c r="F2520">
+        <v>1368415400</v>
+      </c>
+      <c r="G2520" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2521">
+      <c r="A2521" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B2521">
+        <v>16030.25</v>
+      </c>
+      <c r="C2521">
+        <v>16197.0400390625</v>
+      </c>
+      <c r="D2521">
+        <v>15834.41015625</v>
+      </c>
+      <c r="E2521">
+        <v>15865.919921875</v>
+      </c>
+      <c r="F2521">
+        <v>2139164100</v>
+      </c>
+      <c r="G2521" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2522">
+      <c r="A2522" s="2">
+        <v>45308</v>
+      </c>
+      <c r="B2522">
+        <v>15764.3798828125</v>
+      </c>
+      <c r="C2522">
+        <v>15764.3798828125</v>
+      </c>
+      <c r="D2522">
+        <v>15194.9404296875</v>
+      </c>
+      <c r="E2522">
+        <v>15276.900390625</v>
+      </c>
+      <c r="F2522">
+        <v>3952310100</v>
+      </c>
+      <c r="G2522" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" s="2">
+        <v>45309</v>
+      </c>
+      <c r="B2523">
+        <v>15301.1904296875</v>
+      </c>
+      <c r="C2523">
+        <v>15463.6904296875</v>
+      </c>
+      <c r="D2523">
+        <v>15183.9599609375</v>
+      </c>
+      <c r="E2523">
+        <v>15391.7900390625</v>
+      </c>
+      <c r="F2523">
+        <v>2815987000</v>
+      </c>
+      <c r="G2523" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2524">
+      <c r="A2524" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B2524">
+        <v>15404.6904296875</v>
+      </c>
+      <c r="C2524">
+        <v>15540.75</v>
+      </c>
+      <c r="D2524">
+        <v>15207.990234375</v>
+      </c>
+      <c r="E2524">
+        <v>15308.6904296875</v>
+      </c>
+      <c r="F2524">
+        <v>2242257300</v>
+      </c>
+      <c r="G2524" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2525">
+      <c r="A2525" s="2">
+        <v>45313</v>
+      </c>
+      <c r="B2525">
+        <v>15349.0498046875</v>
+      </c>
+      <c r="C2525">
+        <v>15362.91015625</v>
+      </c>
+      <c r="D2525">
+        <v>14794.16015625</v>
+      </c>
+      <c r="E2525">
+        <v>14961.1796875</v>
+      </c>
+      <c r="F2525">
+        <v>2812384600</v>
+      </c>
+      <c r="G2525" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2526">
+      <c r="A2526" s="2">
+        <v>45314</v>
+      </c>
+      <c r="B2526">
+        <v>15038.330078125</v>
+      </c>
+      <c r="C2526">
+        <v>15516.7998046875</v>
+      </c>
+      <c r="D2526">
+        <v>14994.3701171875</v>
+      </c>
+      <c r="E2526">
+        <v>15353.98046875</v>
+      </c>
+      <c r="F2526">
+        <v>2804009700</v>
+      </c>
+      <c r="G2526" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2527">
+      <c r="A2527" s="2">
+        <v>45315</v>
+      </c>
+      <c r="B2527">
+        <v>15602.4501953125</v>
+      </c>
+      <c r="C2527">
+        <v>15975.1103515625</v>
+      </c>
+      <c r="D2527">
+        <v>15412.099609375</v>
+      </c>
+      <c r="E2527">
+        <v>15899.8701171875</v>
+      </c>
+      <c r="F2527">
+        <v>3597683500</v>
+      </c>
+      <c r="G2527" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2528">
+      <c r="A2528" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B2528">
+        <v>15989.9404296875</v>
+      </c>
+      <c r="C2528">
+        <v>16254.9296875</v>
+      </c>
+      <c r="D2528">
+        <v>15828.9296875</v>
+      </c>
+      <c r="E2528">
+        <v>16211.9599609375</v>
+      </c>
+      <c r="F2528">
+        <v>4096404800</v>
+      </c>
+      <c r="G2528" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2529">
+      <c r="A2529" s="2">
+        <v>45317</v>
+      </c>
+      <c r="B2529">
+        <v>16158.7197265625</v>
+      </c>
+      <c r="C2529">
+        <v>16240.9599609375</v>
+      </c>
+      <c r="D2529">
+        <v>15888.0400390625</v>
+      </c>
+      <c r="E2529">
+        <v>15952.23046875</v>
+      </c>
+      <c r="F2529">
+        <v>3314021500</v>
+      </c>
+      <c r="G2529" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2530">
+      <c r="A2530" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B2530">
+        <v>16046.25</v>
+      </c>
+      <c r="C2530">
+        <v>16258.4501953125</v>
+      </c>
+      <c r="D2530">
+        <v>16012.58984375</v>
+      </c>
+      <c r="E2530">
+        <v>16077.240234375</v>
+      </c>
+      <c r="F2530">
+        <v>2923198800</v>
+      </c>
+      <c r="G2530" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2531">
+      <c r="A2531" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B2531">
+        <v>15896.66015625</v>
+      </c>
+      <c r="C2531">
+        <v>15896.66015625</v>
+      </c>
+      <c r="D2531">
+        <v>15654.9697265625</v>
+      </c>
+      <c r="E2531">
+        <v>15703.4501953125</v>
+      </c>
+      <c r="F2531">
+        <v>2565524400</v>
+      </c>
+      <c r="G2531" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2532">
+      <c r="A2532" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B2532">
+        <v>15652.0498046875</v>
+      </c>
+      <c r="C2532">
+        <v>15744.0400390625</v>
+      </c>
+      <c r="D2532">
+        <v>15411.66015625</v>
+      </c>
+      <c r="E2532">
+        <v>15485.0703125</v>
+      </c>
+      <c r="F2532">
+        <v>2594937800</v>
+      </c>
+      <c r="G2532" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2533">
+      <c r="A2533" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B2533">
+        <v>15522.8603515625</v>
+      </c>
+      <c r="C2533">
+        <v>15805.0595703125</v>
+      </c>
+      <c r="D2533">
+        <v>15434.8203125</v>
+      </c>
+      <c r="E2533">
+        <v>15566.2099609375</v>
+      </c>
+      <c r="F2533">
+        <v>2454568100</v>
+      </c>
+      <c r="G2533" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2534">
+      <c r="A2534" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B2534">
+        <v>15756.1201171875</v>
+      </c>
+      <c r="C2534">
+        <v>15912.6103515625</v>
+      </c>
+      <c r="D2534">
+        <v>15435.849609375</v>
+      </c>
+      <c r="E2534">
+        <v>15533.5595703125</v>
+      </c>
+      <c r="F2534">
+        <v>2475955200</v>
+      </c>
+      <c r="G2534" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2535">
+      <c r="A2535" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B2535">
+        <v>15336.8603515625</v>
+      </c>
+      <c r="C2535">
+        <v>15669.76953125</v>
+      </c>
+      <c r="D2535">
+        <v>15336.8603515625</v>
+      </c>
+      <c r="E2535">
+        <v>15510.009765625</v>
+      </c>
+      <c r="F2535">
+        <v>2313277300</v>
+      </c>
+      <c r="G2535" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2536">
+      <c r="A2536" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B2536">
+        <v>15541.23046875</v>
+      </c>
+      <c r="C2536">
+        <v>16154.0498046875</v>
+      </c>
+      <c r="D2536">
+        <v>15541.23046875</v>
+      </c>
+      <c r="E2536">
+        <v>16136.8701171875</v>
+      </c>
+      <c r="F2536">
+        <v>3314171100</v>
+      </c>
+      <c r="G2536" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2537">
+      <c r="A2537" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B2537">
+        <v>16282.3896484375</v>
+      </c>
+      <c r="C2537">
+        <v>16408.150390625</v>
+      </c>
+      <c r="D2537">
+        <v>16035.4296875</v>
+      </c>
+      <c r="E2537">
+        <v>16081.8896484375</v>
+      </c>
+      <c r="F2537">
+        <v>2809645100</v>
+      </c>
+      <c r="G2537" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2538">
+      <c r="A2538" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B2538">
+        <v>15988.6201171875</v>
+      </c>
+      <c r="C2538">
+        <v>16093.51953125</v>
+      </c>
+      <c r="D2538">
+        <v>15821.8603515625</v>
+      </c>
+      <c r="E2538">
+        <v>15878.0703125</v>
+      </c>
+      <c r="F2538">
+        <v>1940615100</v>
+      </c>
+      <c r="G2538" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2539">
+      <c r="A2539" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B2539">
+        <v>15709.2998046875</v>
+      </c>
+      <c r="C2539">
+        <v>15754.009765625</v>
+      </c>
+      <c r="D2539">
+        <v>15531.0302734375</v>
+      </c>
+      <c r="E2539">
+        <v>15746.580078125</v>
+      </c>
+      <c r="F2539">
+        <v>745466400</v>
+      </c>
+      <c r="G2539" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2540">
+      <c r="A2540" s="2">
+        <v>45336</v>
+      </c>
+      <c r="B2540">
+        <v>15579.41015625</v>
+      </c>
+      <c r="C2540">
+        <v>15911.0498046875</v>
+      </c>
+      <c r="D2540">
+        <v>15456.3203125</v>
+      </c>
+      <c r="E2540">
+        <v>15879.3798828125</v>
+      </c>
+      <c r="F2540">
+        <v>1403032800</v>
+      </c>
+      <c r="G2540" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2541">
+      <c r="A2541" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B2541">
+        <v>15824.2099609375</v>
+      </c>
+      <c r="C2541">
+        <v>16029.01953125</v>
+      </c>
+      <c r="D2541">
+        <v>15751.3603515625</v>
+      </c>
+      <c r="E2541">
+        <v>15944.6298828125</v>
+      </c>
+      <c r="F2541">
+        <v>1056900200</v>
+      </c>
+      <c r="G2541" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2542">
+      <c r="A2542" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B2542">
+        <v>16007.5400390625</v>
+      </c>
+      <c r="C2542">
+        <v>16394.16015625</v>
+      </c>
+      <c r="D2542">
+        <v>15937.2802734375</v>
+      </c>
+      <c r="E2542">
+        <v>16339.9599609375</v>
+      </c>
+      <c r="F2542">
+        <v>1742961100</v>
+      </c>
+      <c r="G2542" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2543">
+      <c r="A2543" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B2543">
+        <v>16334.4697265625</v>
+      </c>
+      <c r="C2543">
+        <v>16334.4697265625</v>
+      </c>
+      <c r="D2543">
+        <v>16137.98046875</v>
+      </c>
+      <c r="E2543">
+        <v>16155.6103515625</v>
+      </c>
+      <c r="F2543">
+        <v>2185820800</v>
+      </c>
+      <c r="G2543" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2544">
+      <c r="A2544" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B2544">
+        <v>16222.08984375</v>
+      </c>
+      <c r="C2544">
+        <v>16274.5595703125</v>
+      </c>
+      <c r="D2544">
+        <v>16055.080078125</v>
+      </c>
+      <c r="E2544">
+        <v>16247.509765625</v>
+      </c>
+      <c r="F2544">
+        <v>2205924400</v>
+      </c>
+      <c r="G2544" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2545">
+      <c r="A2545" s="2">
+        <v>45343</v>
+      </c>
+      <c r="B2545">
+        <v>16182.9296875</v>
+      </c>
+      <c r="C2545">
+        <v>16756.009765625</v>
+      </c>
+      <c r="D2545">
+        <v>16138.8095703125</v>
+      </c>
+      <c r="E2545">
+        <v>16503.099609375</v>
+      </c>
+      <c r="F2545">
+        <v>3844263000</v>
+      </c>
+      <c r="G2545" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2546">
+      <c r="A2546" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B2546">
+        <v>16489.83984375</v>
+      </c>
+      <c r="C2546">
+        <v>16742.94921875</v>
+      </c>
+      <c r="D2546">
+        <v>16424.7890625</v>
+      </c>
+      <c r="E2546">
+        <v>16742.94921875</v>
+      </c>
+      <c r="F2546">
+        <v>2739673200</v>
+      </c>
+      <c r="G2546" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2547">
+      <c r="A2547" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B2547">
+        <v>16654.6796875</v>
+      </c>
+      <c r="C2547">
+        <v>16895.8203125</v>
+      </c>
+      <c r="D2547">
+        <v>16654.6796875</v>
+      </c>
+      <c r="E2547">
+        <v>16725.859375</v>
+      </c>
+      <c r="F2547">
+        <v>2903143800</v>
+      </c>
+      <c r="G2547" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2548">
+      <c r="A2548" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B2548">
+        <v>16684.9609375</v>
+      </c>
+      <c r="C2548">
+        <v>16777.41015625</v>
+      </c>
+      <c r="D2548">
+        <v>16590.7109375</v>
+      </c>
+      <c r="E2548">
+        <v>16634.740234375</v>
+      </c>
+      <c r="F2548">
+        <v>2253549700</v>
+      </c>
+      <c r="G2548" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2549">
+      <c r="A2549" s="2">
+        <v>45349</v>
+      </c>
+      <c r="B2549">
+        <v>16645.630859375</v>
+      </c>
+      <c r="C2549">
+        <v>16828.669921875</v>
+      </c>
+      <c r="D2549">
+        <v>16453.5</v>
+      </c>
+      <c r="E2549">
+        <v>16790.80078125</v>
+      </c>
+      <c r="F2549">
+        <v>2423909600</v>
+      </c>
+      <c r="G2549" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2550">
+      <c r="A2550" s="2">
+        <v>45350</v>
+      </c>
+      <c r="B2550">
+        <v>16833.609375</v>
+      </c>
+      <c r="C2550">
+        <v>16844.330078125</v>
+      </c>
+      <c r="D2550">
+        <v>16517.83984375</v>
+      </c>
+      <c r="E2550">
+        <v>16536.849609375</v>
+      </c>
+      <c r="F2550">
+        <v>2587721800</v>
+      </c>
+      <c r="G2550" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2551">
+      <c r="A2551" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B2551">
+        <v>16429.5703125</v>
+      </c>
+      <c r="C2551">
+        <v>16695.359375</v>
+      </c>
+      <c r="D2551">
+        <v>16429.5703125</v>
+      </c>
+      <c r="E2551">
+        <v>16511.439453125</v>
+      </c>
+      <c r="F2551">
+        <v>3380825500</v>
+      </c>
+      <c r="G2551" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2552">
+      <c r="A2552" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B2552">
+        <v>16390.890625</v>
+      </c>
+      <c r="C2552">
+        <v>16651.669921875</v>
+      </c>
+      <c r="D2552">
+        <v>16321.1201171875</v>
+      </c>
+      <c r="E2552">
+        <v>16589.439453125</v>
+      </c>
+      <c r="F2552">
+        <v>2880658500</v>
+      </c>
+      <c r="G2552" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2553">
+      <c r="A2553" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B2553">
+        <v>16629.55078125</v>
+      </c>
+      <c r="C2553">
+        <v>16645.9609375</v>
+      </c>
+      <c r="D2553">
+        <v>16473.650390625</v>
+      </c>
+      <c r="E2553">
+        <v>16595.970703125</v>
+      </c>
+      <c r="F2553">
+        <v>2519017900</v>
+      </c>
+      <c r="G2553" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2554">
+      <c r="A2554" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B2554">
+        <v>16343.9501953125</v>
+      </c>
+      <c r="C2554">
+        <v>16450.369140625</v>
+      </c>
+      <c r="D2554">
+        <v>16095.6796875</v>
+      </c>
+      <c r="E2554">
+        <v>16162.6396484375</v>
+      </c>
+      <c r="F2554">
+        <v>2697889500</v>
+      </c>
+      <c r="G2554" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2555">
+      <c r="A2555" s="2">
+        <v>45357</v>
+      </c>
+      <c r="B2555">
+        <v>16167.4501953125</v>
+      </c>
+      <c r="C2555">
+        <v>16545.05078125</v>
+      </c>
+      <c r="D2555">
+        <v>16145.2197265625</v>
+      </c>
+      <c r="E2555">
+        <v>16438.08984375</v>
+      </c>
+      <c r="F2555">
+        <v>2488701100</v>
+      </c>
+      <c r="G2555" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2556">
+      <c r="A2556" s="2">
+        <v>45358</v>
+      </c>
+      <c r="B2556">
+        <v>16417.76953125</v>
+      </c>
+      <c r="C2556">
+        <v>16512.41015625</v>
+      </c>
+      <c r="D2556">
+        <v>16136.1201171875</v>
+      </c>
+      <c r="E2556">
+        <v>16229.7802734375</v>
+      </c>
+      <c r="F2556">
+        <v>2535414300</v>
+      </c>
+      <c r="G2556" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2557">
+      <c r="A2557" s="2">
+        <v>45359</v>
+      </c>
+      <c r="B2557">
+        <v>16275.3896484375</v>
+      </c>
+      <c r="C2557">
+        <v>16489.73046875</v>
+      </c>
+      <c r="D2557">
+        <v>16275.3896484375</v>
+      </c>
+      <c r="E2557">
+        <v>16353.3896484375</v>
+      </c>
+      <c r="F2557">
+        <v>2596313300</v>
+      </c>
+      <c r="G2557" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2558">
+      <c r="A2558" s="2">
+        <v>45362</v>
+      </c>
+      <c r="B2558">
+        <v>16416.169921875</v>
+      </c>
+      <c r="C2558">
+        <v>16625.640625</v>
+      </c>
+      <c r="D2558">
+        <v>16416.169921875</v>
+      </c>
+      <c r="E2558">
+        <v>16587.5703125</v>
+      </c>
+      <c r="F2558">
+        <v>2494031000</v>
+      </c>
+      <c r="G2558" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2559">
+      <c r="A2559" s="2">
+        <v>45363</v>
+      </c>
+      <c r="B2559">
+        <v>16701.94921875</v>
+      </c>
+      <c r="C2559">
+        <v>17154.869140625</v>
+      </c>
+      <c r="D2559">
+        <v>16613.44921875</v>
+      </c>
+      <c r="E2559">
+        <v>17093.5</v>
+      </c>
+      <c r="F2559">
+        <v>4001753000</v>
+      </c>
+      <c r="G2559" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2560">
+      <c r="A2560" s="2">
+        <v>45364</v>
+      </c>
+      <c r="B2560">
+        <v>17059.109375</v>
+      </c>
+      <c r="C2560">
+        <v>17214.669921875</v>
+      </c>
+      <c r="D2560">
+        <v>17050.869140625</v>
+      </c>
+      <c r="E2560">
+        <v>17082.109375</v>
+      </c>
+      <c r="F2560">
+        <v>2801014000</v>
+      </c>
+      <c r="G2560" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2561">
+      <c r="A2561" s="2">
+        <v>45365</v>
+      </c>
+      <c r="B2561">
+        <v>17120.5390625</v>
+      </c>
+      <c r="C2561">
+        <v>17209.8203125</v>
+      </c>
+      <c r="D2561">
+        <v>16878.109375</v>
+      </c>
+      <c r="E2561">
+        <v>16961.66015625</v>
+      </c>
+      <c r="F2561">
+        <v>2699096400</v>
+      </c>
+      <c r="G2561" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2562">
+      <c r="A2562" s="2">
+        <v>45366</v>
+      </c>
+      <c r="B2562">
+        <v>16758.359375</v>
+      </c>
+      <c r="C2562">
+        <v>16821.130859375</v>
+      </c>
+      <c r="D2562">
+        <v>16550.419921875</v>
+      </c>
+      <c r="E2562">
+        <v>16720.890625</v>
+      </c>
+      <c r="F2562">
+        <v>3776694200</v>
+      </c>
+      <c r="G2562" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2563">
+      <c r="A2563" s="2">
+        <v>45369</v>
+      </c>
+      <c r="B2563">
+        <v>16690.259765625</v>
+      </c>
+      <c r="C2563">
+        <v>16801.640625</v>
+      </c>
+      <c r="D2563">
+        <v>16641.580078125</v>
+      </c>
+      <c r="E2563">
+        <v>16737.119140625</v>
+      </c>
+      <c r="F2563">
+        <v>2241776800</v>
+      </c>
+      <c r="G2563" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2564">
+      <c r="A2564" s="2">
+        <v>45370</v>
+      </c>
+      <c r="B2564">
+        <v>16628.0703125</v>
+      </c>
+      <c r="C2564">
+        <v>16682.5390625</v>
+      </c>
+      <c r="D2564">
+        <v>16492.08984375</v>
+      </c>
+      <c r="E2564">
+        <v>16529.48046875</v>
+      </c>
+      <c r="F2564">
+        <v>2433582900</v>
+      </c>
+      <c r="G2564" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2565">
+      <c r="A2565" s="2">
+        <v>45371</v>
+      </c>
+      <c r="B2565">
+        <v>16559.009765625</v>
+      </c>
+      <c r="C2565">
+        <v>16654.080078125</v>
+      </c>
+      <c r="D2565">
+        <v>16430.119140625</v>
+      </c>
+      <c r="E2565">
+        <v>16543.0703125</v>
+      </c>
+      <c r="F2565">
+        <v>2291672600</v>
+      </c>
+      <c r="G2565" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2566">
+      <c r="A2566" s="2">
+        <v>45372</v>
+      </c>
+      <c r="B2566">
+        <v>16762.830078125</v>
+      </c>
+      <c r="C2566">
+        <v>16973.51953125</v>
+      </c>
+      <c r="D2566">
+        <v>16762.830078125</v>
+      </c>
+      <c r="E2566">
+        <v>16863.099609375</v>
+      </c>
+      <c r="F2566">
+        <v>3220967100</v>
+      </c>
+      <c r="G2566" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2567">
+      <c r="A2567" s="2">
+        <v>45373</v>
+      </c>
+      <c r="B2567">
+        <v>16745.26953125</v>
+      </c>
+      <c r="C2567">
+        <v>16747.19921875</v>
+      </c>
+      <c r="D2567">
+        <v>16341.6103515625</v>
+      </c>
+      <c r="E2567">
+        <v>16499.470703125</v>
+      </c>
+      <c r="F2567">
+        <v>3110411500</v>
+      </c>
+      <c r="G2567" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2568">
+      <c r="A2568" s="2">
+        <v>45376</v>
+      </c>
+      <c r="B2568">
+        <v>16531.94921875</v>
+      </c>
+      <c r="C2568">
+        <v>16612.640625</v>
+      </c>
+      <c r="D2568">
+        <v>16441.30078125</v>
+      </c>
+      <c r="E2568">
+        <v>16473.640625</v>
+      </c>
+      <c r="F2568">
+        <v>2624506500</v>
+      </c>
+      <c r="G2568" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2569">
+      <c r="A2569" s="2">
+        <v>45377</v>
+      </c>
+      <c r="B2569">
+        <v>16548.5</v>
+      </c>
+      <c r="C2569">
+        <v>16728.900390625</v>
+      </c>
+      <c r="D2569">
+        <v>16452.55078125</v>
+      </c>
+      <c r="E2569">
+        <v>16618.3203125</v>
+      </c>
+      <c r="F2569">
+        <v>2745765700</v>
+      </c>
+      <c r="G2569" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2570">
+      <c r="A2570" s="2">
+        <v>45378</v>
+      </c>
+      <c r="B2570">
+        <v>16530.439453125</v>
+      </c>
+      <c r="C2570">
+        <v>16612</v>
+      </c>
+      <c r="D2570">
+        <v>16354.8095703125</v>
+      </c>
+      <c r="E2570">
+        <v>16392.83984375</v>
+      </c>
+      <c r="F2570">
+        <v>2769889600</v>
+      </c>
+      <c r="G2570" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2571">
+      <c r="A2571" s="2">
+        <v>45379</v>
+      </c>
+      <c r="B2571">
+        <v>16378.400390625</v>
+      </c>
+      <c r="C2571">
+        <v>16725.609375</v>
+      </c>
+      <c r="D2571">
+        <v>16345.900390625</v>
+      </c>
+      <c r="E2571">
+        <v>16541.419921875</v>
+      </c>
+      <c r="F2571">
+        <v>3203421300</v>
+      </c>
+      <c r="G2571" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2572">
+      <c r="A2572" s="2">
+        <v>45384</v>
+      </c>
+      <c r="B2572">
+        <v>16811.740234375</v>
+      </c>
+      <c r="C2572">
+        <v>17007.33984375</v>
+      </c>
+      <c r="D2572">
+        <v>16811.740234375</v>
+      </c>
+      <c r="E2572">
+        <v>16931.51953125</v>
+      </c>
+      <c r="F2572">
+        <v>3983141300</v>
+      </c>
+      <c r="G2572" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2573">
+      <c r="A2573" s="2">
+        <v>45385</v>
+      </c>
+      <c r="B2573">
+        <v>16926.849609375</v>
+      </c>
+      <c r="C2573">
+        <v>16926.849609375</v>
+      </c>
+      <c r="D2573">
+        <v>16689.189453125</v>
+      </c>
+      <c r="E2573">
+        <v>16725.099609375</v>
+      </c>
+      <c r="F2573">
+        <v>2667363200</v>
+      </c>
+      <c r="G2573" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2574">
+      <c r="A2574" s="2">
+        <v>45387</v>
+      </c>
+      <c r="B2574">
+        <v>16787.9296875</v>
+      </c>
+      <c r="C2574">
+        <v>16839.55078125</v>
+      </c>
+      <c r="D2574">
+        <v>16480.359375</v>
+      </c>
+      <c r="E2574">
+        <v>16723.919921875</v>
+      </c>
+      <c r="F2574">
+        <v>1804396100</v>
+      </c>
+      <c r="G2574" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2575">
+      <c r="A2575" s="2">
+        <v>45390</v>
+      </c>
+      <c r="B2575">
+        <v>16650.830078125</v>
+      </c>
+      <c r="C2575">
+        <v>16895.060546875</v>
+      </c>
+      <c r="D2575">
+        <v>16580.529296875</v>
+      </c>
+      <c r="E2575">
+        <v>16732.849609375</v>
+      </c>
+      <c r="F2575">
+        <v>2636773000</v>
+      </c>
+      <c r="G2575" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2576">
+      <c r="A2576" s="2">
+        <v>45391</v>
+      </c>
+      <c r="B2576">
+        <v>16819.1796875</v>
+      </c>
+      <c r="C2576">
+        <v>17006.849609375</v>
+      </c>
+      <c r="D2576">
+        <v>16805.990234375</v>
+      </c>
+      <c r="E2576">
+        <v>16828.0703125</v>
+      </c>
+      <c r="F2576">
+        <v>2120056900</v>
+      </c>
+      <c r="G2576" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2577">
+      <c r="A2577" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B2577">
+        <v>16926.01953125</v>
+      </c>
+      <c r="C2577">
+        <v>17190.5</v>
+      </c>
+      <c r="D2577">
+        <v>16918.359375</v>
+      </c>
+      <c r="E2577">
+        <v>17139.169921875</v>
+      </c>
+      <c r="F2577">
+        <v>2549074700</v>
+      </c>
+      <c r="G2577" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2578">
+      <c r="A2578" s="2">
+        <v>45393</v>
+      </c>
+      <c r="B2578">
+        <v>16856.189453125</v>
+      </c>
+      <c r="C2578">
+        <v>17141.359375</v>
+      </c>
+      <c r="D2578">
+        <v>16856.189453125</v>
+      </c>
+      <c r="E2578">
+        <v>17095.029296875</v>
+      </c>
+      <c r="F2578">
+        <v>2480545300</v>
+      </c>
+      <c r="G2578" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2579">
+      <c r="A2579" s="2">
+        <v>45394</v>
+      </c>
+      <c r="B2579">
+        <v>16978.69921875</v>
+      </c>
+      <c r="C2579">
+        <v>17031.310546875</v>
+      </c>
+      <c r="D2579">
+        <v>16721.689453125</v>
+      </c>
+      <c r="E2579">
+        <v>16721.689453125</v>
+      </c>
+      <c r="F2579">
+        <v>2840321200</v>
+      </c>
+      <c r="G2579" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2580">
+      <c r="A2580" s="2">
+        <v>45397</v>
+      </c>
+      <c r="B2580">
+        <v>16487.359375</v>
+      </c>
+      <c r="C2580">
+        <v>16647.08984375</v>
+      </c>
+      <c r="D2580">
+        <v>16465.400390625</v>
+      </c>
+      <c r="E2580">
+        <v>16600.4609375</v>
+      </c>
+      <c r="F2580">
+        <v>2561790600</v>
+      </c>
+      <c r="G2580" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2581">
+      <c r="A2581" s="2">
+        <v>45398</v>
+      </c>
+      <c r="B2581">
+        <v>16367.6904296875</v>
+      </c>
+      <c r="C2581">
+        <v>16449.240234375</v>
+      </c>
+      <c r="D2581">
+        <v>16208.6396484375</v>
+      </c>
+      <c r="E2581">
+        <v>16248.9697265625</v>
+      </c>
+      <c r="F2581">
+        <v>3092911600</v>
+      </c>
+      <c r="G2581" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2582">
+      <c r="A2582" s="2">
+        <v>45399</v>
+      </c>
+      <c r="B2582">
+        <v>16225.5400390625</v>
+      </c>
+      <c r="C2582">
+        <v>16316.6904296875</v>
+      </c>
+      <c r="D2582">
+        <v>16155.830078125</v>
+      </c>
+      <c r="E2582">
+        <v>16251.83984375</v>
+      </c>
+      <c r="F2582">
+        <v>2450526000</v>
+      </c>
+      <c r="G2582" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2583">
+      <c r="A2583" s="2">
+        <v>45400</v>
+      </c>
+      <c r="B2583">
+        <v>16253.240234375</v>
+      </c>
+      <c r="C2583">
+        <v>16507.599609375</v>
+      </c>
+      <c r="D2583">
+        <v>16206.5498046875</v>
+      </c>
+      <c r="E2583">
+        <v>16385.869140625</v>
+      </c>
+      <c r="F2583">
+        <v>3228014900</v>
+      </c>
+      <c r="G2583" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2584">
+      <c r="A2584" s="2">
+        <v>45401</v>
+      </c>
+      <c r="B2584">
+        <v>16246.33984375</v>
+      </c>
+      <c r="C2584">
+        <v>16254.900390625</v>
+      </c>
+      <c r="D2584">
+        <v>16044.4501953125</v>
+      </c>
+      <c r="E2584">
+        <v>16224.1396484375</v>
+      </c>
+      <c r="F2584">
+        <v>3393743300</v>
+      </c>
+      <c r="G2584" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2585">
+      <c r="A2585" s="2">
+        <v>45404</v>
+      </c>
+      <c r="B2585">
+        <v>16410.830078125</v>
+      </c>
+      <c r="C2585">
+        <v>16637.8203125</v>
+      </c>
+      <c r="D2585">
+        <v>16410.830078125</v>
+      </c>
+      <c r="E2585">
+        <v>16511.689453125</v>
+      </c>
+      <c r="F2585">
+        <v>2915063300</v>
+      </c>
+      <c r="G2585" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2586">
+      <c r="A2586" s="2">
+        <v>45405</v>
+      </c>
+      <c r="B2586">
+        <v>16679.390625</v>
+      </c>
+      <c r="C2586">
+        <v>16846.130859375</v>
+      </c>
+      <c r="D2586">
+        <v>16599.2109375</v>
+      </c>
+      <c r="E2586">
+        <v>16828.9296875</v>
+      </c>
+      <c r="F2586">
+        <v>2993655900</v>
+      </c>
+      <c r="G2586" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2587">
+      <c r="A2587" s="2">
+        <v>45406</v>
+      </c>
+      <c r="B2587">
+        <v>16993.169921875</v>
+      </c>
+      <c r="C2587">
+        <v>17217.859375</v>
+      </c>
+      <c r="D2587">
+        <v>16934.650390625</v>
+      </c>
+      <c r="E2587">
+        <v>17201.26953125</v>
+      </c>
+      <c r="F2587">
+        <v>3314752700</v>
+      </c>
+      <c r="G2587" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2588">
+      <c r="A2588" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2588">
+        <v>17144.119140625</v>
+      </c>
+      <c r="C2588">
+        <v>17438.830078125</v>
+      </c>
+      <c r="D2588">
+        <v>17109.5703125</v>
+      </c>
+      <c r="E2588">
+        <v>17284.5390625</v>
+      </c>
+      <c r="F2588">
+        <v>3147284200</v>
+      </c>
+      <c r="G2588" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2589">
+      <c r="A2589" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2589">
+        <v>17336.19921875</v>
+      </c>
+      <c r="C2589">
+        <v>17758.240234375</v>
+      </c>
+      <c r="D2589">
+        <v>17336.19921875</v>
+      </c>
+      <c r="E2589">
+        <v>17651.150390625</v>
+      </c>
+      <c r="F2589">
+        <v>3850968700</v>
+      </c>
+      <c r="G2589" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2590">
+      <c r="A2590" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2590">
+        <v>17737.9296875</v>
+      </c>
+      <c r="C2590">
+        <v>18031.16015625</v>
+      </c>
+      <c r="D2590">
+        <v>17679.189453125</v>
+      </c>
+      <c r="E2590">
+        <v>17746.91015625</v>
+      </c>
+      <c r="F2590">
+        <v>4850882200</v>
+      </c>
+      <c r="G2590" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2591">
+      <c r="A2591" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B2591">
+        <v>17843.439453125</v>
+      </c>
+      <c r="C2591">
+        <v>17902.01953125</v>
+      </c>
+      <c r="D2591">
+        <v>17686.939453125</v>
+      </c>
+      <c r="E2591">
+        <v>17763.029296875</v>
+      </c>
+      <c r="F2591">
+        <v>3679962400</v>
+      </c>
+      <c r="G2591" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2592">
+      <c r="A2592" s="2">
+        <v>45414</v>
+      </c>
+      <c r="B2592">
+        <v>17760.6796875</v>
+      </c>
+      <c r="C2592">
+        <v>18217.8203125</v>
+      </c>
+      <c r="D2592">
+        <v>17740.619140625</v>
+      </c>
+      <c r="E2592">
+        <v>18207.130859375</v>
+      </c>
+      <c r="F2592">
+        <v>2424963300</v>
+      </c>
+      <c r="G2592" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2593">
+      <c r="A2593" s="2">
+        <v>45415</v>
+      </c>
+      <c r="B2593">
+        <v>18543.30078125</v>
+      </c>
+      <c r="C2593">
+        <v>18604.169921875</v>
+      </c>
+      <c r="D2593">
+        <v>18362.220703125</v>
+      </c>
+      <c r="E2593">
+        <v>18475.919921875</v>
+      </c>
+      <c r="F2593">
+        <v>2476085800</v>
+      </c>
+      <c r="G2593" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2594">
+      <c r="A2594" s="2">
+        <v>45418</v>
+      </c>
+      <c r="B2594">
+        <v>18488.55078125</v>
+      </c>
+      <c r="C2594">
+        <v>18590.169921875</v>
+      </c>
+      <c r="D2594">
+        <v>18389.5390625</v>
+      </c>
+      <c r="E2594">
+        <v>18578.30078125</v>
+      </c>
+      <c r="F2594">
+        <v>3438627300</v>
+      </c>
+      <c r="G2594" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2595">
+      <c r="A2595" s="2">
+        <v>45419</v>
+      </c>
+      <c r="B2595">
+        <v>18577.55078125</v>
+      </c>
+      <c r="C2595">
+        <v>18638.810546875</v>
+      </c>
+      <c r="D2595">
+        <v>18411.01953125</v>
+      </c>
+      <c r="E2595">
+        <v>18479.369140625</v>
+      </c>
+      <c r="F2595">
+        <v>2494399700</v>
+      </c>
+      <c r="G2595" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2596">
+      <c r="A2596" s="2">
+        <v>45420</v>
+      </c>
+      <c r="B2596">
+        <v>18510.5390625</v>
+      </c>
+      <c r="C2596">
+        <v>18606.560546875</v>
+      </c>
+      <c r="D2596">
+        <v>18298.359375</v>
+      </c>
+      <c r="E2596">
+        <v>18313.859375</v>
+      </c>
+      <c r="F2596">
+        <v>2911676300</v>
+      </c>
+      <c r="G2596" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2597">
+      <c r="A2597" s="2">
+        <v>45421</v>
+      </c>
+      <c r="B2597">
+        <v>18306.25</v>
+      </c>
+      <c r="C2597">
+        <v>18560.759765625</v>
+      </c>
+      <c r="D2597">
+        <v>18278.109375</v>
+      </c>
+      <c r="E2597">
+        <v>18537.810546875</v>
+      </c>
+      <c r="F2597">
+        <v>2904974500</v>
+      </c>
+      <c r="G2597" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2598">
+      <c r="A2598" s="2">
+        <v>45422</v>
+      </c>
+      <c r="B2598">
+        <v>18669.4296875</v>
+      </c>
+      <c r="C2598">
+        <v>18993.279296875</v>
+      </c>
+      <c r="D2598">
+        <v>18657.509765625</v>
+      </c>
+      <c r="E2598">
+        <v>18963.6796875</v>
+      </c>
+      <c r="F2598">
+        <v>6506899800</v>
+      </c>
+      <c r="G2598" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2599">
+      <c r="A2599" s="2">
+        <v>45425</v>
+      </c>
+      <c r="B2599">
+        <v>18904.580078125</v>
+      </c>
+      <c r="C2599">
+        <v>19123.48046875</v>
+      </c>
+      <c r="D2599">
+        <v>18827.599609375</v>
+      </c>
+      <c r="E2599">
+        <v>19115.060546875</v>
+      </c>
+      <c r="F2599">
+        <v>3760625900</v>
+      </c>
+      <c r="G2599" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2600">
+      <c r="A2600" s="2">
+        <v>45426</v>
+      </c>
+      <c r="B2600">
+        <v>19203.8203125</v>
+      </c>
+      <c r="C2600">
+        <v>19301.130859375</v>
+      </c>
+      <c r="D2600">
+        <v>19072.640625</v>
+      </c>
+      <c r="E2600">
+        <v>19073.7109375</v>
+      </c>
+      <c r="F2600">
+        <v>3455242600</v>
+      </c>
+      <c r="G2600" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2601">
+      <c r="A2601" s="2">
+        <v>45428</v>
+      </c>
+      <c r="B2601">
+        <v>19262.7890625</v>
+      </c>
+      <c r="C2601">
+        <v>19442.900390625</v>
+      </c>
+      <c r="D2601">
+        <v>19114.380859375</v>
+      </c>
+      <c r="E2601">
+        <v>19376.529296875</v>
+      </c>
+      <c r="F2601">
+        <v>5813458500</v>
+      </c>
+      <c r="G2601" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2602">
+      <c r="A2602" s="2">
+        <v>45429</v>
+      </c>
+      <c r="B2602">
+        <v>19525.119140625</v>
+      </c>
+      <c r="C2602">
+        <v>19602.240234375</v>
+      </c>
+      <c r="D2602">
+        <v>19342.9609375</v>
+      </c>
+      <c r="E2602">
+        <v>19553.609375</v>
+      </c>
+      <c r="F2602">
+        <v>4376057600</v>
+      </c>
+      <c r="G2602" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2603">
+      <c r="A2603" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B2603">
+        <v>19621.4296875</v>
+      </c>
+      <c r="C2603">
+        <v>19706.119140625</v>
+      </c>
+      <c r="D2603">
+        <v>19574.560546875</v>
+      </c>
+      <c r="E2603">
+        <v>19636.220703125</v>
+      </c>
+      <c r="F2603">
+        <v>3501238100</v>
+      </c>
+      <c r="G2603" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2604">
+      <c r="A2604" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B2604">
+        <v>19473.669921875</v>
+      </c>
+      <c r="C2604">
+        <v>19487.359375</v>
+      </c>
+      <c r="D2604">
+        <v>19175.80078125</v>
+      </c>
+      <c r="E2604">
+        <v>19220.619140625</v>
+      </c>
+      <c r="F2604">
+        <v>3517186600</v>
+      </c>
+      <c r="G2604" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2605">
+      <c r="A2605" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2605">
+        <v>19225.259765625</v>
+      </c>
+      <c r="C2605">
+        <v>19359.6796875</v>
+      </c>
+      <c r="D2605">
+        <v>19149.41015625</v>
+      </c>
+      <c r="E2605">
+        <v>19195.599609375</v>
+      </c>
+      <c r="F2605">
+        <v>2837605100</v>
+      </c>
+      <c r="G2605" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2606">
+      <c r="A2606" s="2">
+        <v>45435</v>
+      </c>
+      <c r="B2606">
+        <v>19024.41015625</v>
+      </c>
+      <c r="C2606">
+        <v>19024.41015625</v>
+      </c>
+      <c r="D2606">
+        <v>18776.2109375</v>
+      </c>
+      <c r="E2606">
+        <v>18868.7109375</v>
+      </c>
+      <c r="F2606">
+        <v>3166005900</v>
+      </c>
+      <c r="G2606" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2607">
+      <c r="A2607" s="2">
+        <v>45436</v>
+      </c>
+      <c r="B2607">
+        <v>18742.279296875</v>
+      </c>
+      <c r="C2607">
+        <v>18867.91015625</v>
+      </c>
+      <c r="D2607">
+        <v>18532.41015625</v>
+      </c>
+      <c r="E2607">
+        <v>18608.939453125</v>
+      </c>
+      <c r="F2607">
+        <v>3549017600</v>
+      </c>
+      <c r="G2607" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2608">
+      <c r="A2608" s="2">
+        <v>45439</v>
+      </c>
+      <c r="B2608">
+        <v>18606.01953125</v>
+      </c>
+      <c r="C2608">
+        <v>18871.130859375</v>
+      </c>
+      <c r="D2608">
+        <v>18504.529296875</v>
+      </c>
+      <c r="E2608">
+        <v>18827.349609375</v>
+      </c>
+      <c r="F2608">
+        <v>2906070700</v>
+      </c>
+      <c r="G2608" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2609">
+      <c r="A2609" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B2609">
+        <v>18814.009765625</v>
+      </c>
+      <c r="C2609">
+        <v>19000.51953125</v>
+      </c>
+      <c r="D2609">
+        <v>18776.099609375</v>
+      </c>
+      <c r="E2609">
+        <v>18821.16015625</v>
+      </c>
+      <c r="F2609">
+        <v>2432705400</v>
+      </c>
+      <c r="G2609" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2610">
+      <c r="A2610" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2610">
+        <v>18659.41015625</v>
+      </c>
+      <c r="C2610">
+        <v>18694.55078125</v>
+      </c>
+      <c r="D2610">
+        <v>18425.08984375</v>
+      </c>
+      <c r="E2610">
+        <v>18477.009765625</v>
+      </c>
+      <c r="F2610">
+        <v>3215579000</v>
+      </c>
+      <c r="G2610" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2611">
+      <c r="A2611" s="2">
+        <v>45442</v>
+      </c>
+      <c r="B2611">
+        <v>18423.779296875</v>
+      </c>
+      <c r="C2611">
+        <v>18537.919921875</v>
+      </c>
+      <c r="D2611">
+        <v>18163.2109375</v>
+      </c>
+      <c r="E2611">
+        <v>18230.189453125</v>
+      </c>
+      <c r="F2611">
+        <v>3492796500</v>
+      </c>
+      <c r="G2611" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2612">
+      <c r="A2612" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B2612">
+        <v>18409.619140625</v>
+      </c>
+      <c r="C2612">
+        <v>18551.1796875</v>
+      </c>
+      <c r="D2612">
+        <v>18077.390625</v>
+      </c>
+      <c r="E2612">
+        <v>18079.609375</v>
+      </c>
+      <c r="F2612">
+        <v>5337054200</v>
+      </c>
+      <c r="G2612" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2613">
+      <c r="A2613" s="2">
+        <v>45446</v>
+      </c>
+      <c r="B2613">
+        <v>18283.560546875</v>
+      </c>
+      <c r="C2613">
+        <v>18573.810546875</v>
+      </c>
+      <c r="D2613">
+        <v>18283.560546875</v>
+      </c>
+      <c r="E2613">
+        <v>18403.0390625</v>
+      </c>
+      <c r="F2613">
+        <v>3140936400</v>
+      </c>
+      <c r="G2613" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2614">
+      <c r="A2614" s="2">
+        <v>45447</v>
+      </c>
+      <c r="B2614">
+        <v>18335.44921875</v>
+      </c>
+      <c r="C2614">
+        <v>18541.029296875</v>
+      </c>
+      <c r="D2614">
+        <v>18335.44921875</v>
+      </c>
+      <c r="E2614">
+        <v>18444.109375</v>
+      </c>
+      <c r="F2614">
+        <v>2971467000</v>
+      </c>
+      <c r="G2614" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2615">
+      <c r="A2615" s="2">
+        <v>45448</v>
+      </c>
+      <c r="B2615">
+        <v>18489.779296875</v>
+      </c>
+      <c r="C2615">
+        <v>18724.619140625</v>
+      </c>
+      <c r="D2615">
+        <v>18375.26953125</v>
+      </c>
+      <c r="E2615">
+        <v>18424.9609375</v>
+      </c>
+      <c r="F2615">
+        <v>3250805000</v>
+      </c>
+      <c r="G2615" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2616">
+      <c r="A2616" s="2">
+        <v>45449</v>
+      </c>
+      <c r="B2616">
+        <v>18577.580078125</v>
+      </c>
+      <c r="C2616">
+        <v>18700.6796875</v>
+      </c>
+      <c r="D2616">
+        <v>18383.80078125</v>
+      </c>
+      <c r="E2616">
+        <v>18476.80078125</v>
+      </c>
+      <c r="F2616">
+        <v>2797746800</v>
+      </c>
+      <c r="G2616" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2617">
+      <c r="A2617" s="2">
+        <v>45450</v>
+      </c>
+      <c r="B2617">
+        <v>18562.48046875</v>
+      </c>
+      <c r="C2617">
+        <v>18575.689453125</v>
+      </c>
+      <c r="D2617">
+        <v>18302.330078125</v>
+      </c>
+      <c r="E2617">
+        <v>18366.94921875</v>
+      </c>
+      <c r="F2617">
+        <v>3310059200</v>
+      </c>
+      <c r="G2617" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2618">
+      <c r="A2618" s="2">
+        <v>45454</v>
+      </c>
+      <c r="B2618">
+        <v>18163.119140625</v>
+      </c>
+      <c r="C2618">
+        <v>18267.689453125</v>
+      </c>
+      <c r="D2618">
+        <v>17994.099609375</v>
+      </c>
+      <c r="E2618">
+        <v>18176.33984375</v>
+      </c>
+      <c r="F2618">
+        <v>3528461800</v>
+      </c>
+      <c r="G2618" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2619">
+      <c r="A2619" s="2">
+        <v>45455</v>
+      </c>
+      <c r="B2619">
+        <v>18032.400390625</v>
+      </c>
+      <c r="C2619">
+        <v>18063.720703125</v>
+      </c>
+      <c r="D2619">
+        <v>17848.759765625</v>
+      </c>
+      <c r="E2619">
+        <v>17937.83984375</v>
+      </c>
+      <c r="F2619">
+        <v>3139463400</v>
+      </c>
+      <c r="G2619" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2620">
+      <c r="A2620" s="2">
+        <v>45456</v>
+      </c>
+      <c r="B2620">
+        <v>18104.130859375</v>
+      </c>
+      <c r="C2620">
+        <v>18173.529296875</v>
+      </c>
+      <c r="D2620">
+        <v>17971.5703125</v>
+      </c>
+      <c r="E2620">
+        <v>18112.630859375</v>
+      </c>
+      <c r="F2620">
+        <v>2331253000</v>
+      </c>
+      <c r="G2620" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2621">
+      <c r="A2621" s="2">
+        <v>45457</v>
+      </c>
+      <c r="B2621">
+        <v>18028.0703125</v>
+      </c>
+      <c r="C2621">
+        <v>18109.890625</v>
+      </c>
+      <c r="D2621">
+        <v>17927.16015625</v>
+      </c>
+      <c r="E2621">
+        <v>17941.779296875</v>
+      </c>
+      <c r="F2621">
+        <v>2621288300</v>
+      </c>
+      <c r="G2621" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2622">
+      <c r="A2622" s="2">
+        <v>45460</v>
+      </c>
+      <c r="B2622">
+        <v>17848.869140625</v>
+      </c>
+      <c r="C2622">
+        <v>18122.80078125</v>
+      </c>
+      <c r="D2622">
+        <v>17752.9609375</v>
+      </c>
+      <c r="E2622">
+        <v>17936.119140625</v>
+      </c>
+      <c r="F2622">
+        <v>2118421200</v>
+      </c>
+      <c r="G2622" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2623">
+      <c r="A2623" s="2">
+        <v>45461</v>
+      </c>
+      <c r="B2623">
+        <v>17961.890625</v>
+      </c>
+      <c r="C2623">
+        <v>18043.48046875</v>
+      </c>
+      <c r="D2623">
+        <v>17854.7890625</v>
+      </c>
+      <c r="E2623">
+        <v>17915.55078125</v>
+      </c>
+      <c r="F2623">
+        <v>2550030800</v>
+      </c>
+      <c r="G2623" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2624">
+      <c r="A2624" s="2">
+        <v>45462</v>
+      </c>
+      <c r="B2624">
+        <v>18056.220703125</v>
+      </c>
+      <c r="C2624">
+        <v>18448.66015625</v>
+      </c>
+      <c r="D2624">
+        <v>18039.009765625</v>
+      </c>
+      <c r="E2624">
+        <v>18430.390625</v>
+      </c>
+      <c r="F2624">
+        <v>3513293400</v>
+      </c>
+      <c r="G2624" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2625">
+      <c r="A2625" s="2">
+        <v>45463</v>
+      </c>
+      <c r="B2625">
+        <v>18453.630859375</v>
+      </c>
+      <c r="C2625">
+        <v>18520.369140625</v>
+      </c>
+      <c r="D2625">
+        <v>18274.19921875</v>
+      </c>
+      <c r="E2625">
+        <v>18335.3203125</v>
+      </c>
+      <c r="F2625">
+        <v>2682897600</v>
+      </c>
+      <c r="G2625" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2626">
+      <c r="A2626" s="2">
+        <v>45464</v>
+      </c>
+      <c r="B2626">
+        <v>18199.140625</v>
+      </c>
+      <c r="C2626">
+        <v>18240.130859375</v>
+      </c>
+      <c r="D2626">
+        <v>17968.369140625</v>
+      </c>
+      <c r="E2626">
+        <v>18028.51953125</v>
+      </c>
+      <c r="F2626">
+        <v>3426213700</v>
+      </c>
+      <c r="G2626" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2627">
+      <c r="A2627" s="2">
+        <v>45467</v>
+      </c>
+      <c r="B2627">
+        <v>17906.359375</v>
+      </c>
+      <c r="C2627">
+        <v>18032.669921875</v>
+      </c>
+      <c r="D2627">
+        <v>17789.5703125</v>
+      </c>
+      <c r="E2627">
+        <v>18027.7109375</v>
+      </c>
+      <c r="F2627">
+        <v>2716259500</v>
+      </c>
+      <c r="G2627" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2628">
+      <c r="A2628" s="2">
+        <v>45468</v>
+      </c>
+      <c r="B2628">
+        <v>18088.01953125</v>
+      </c>
+      <c r="C2628">
+        <v>18231.4609375</v>
+      </c>
+      <c r="D2628">
+        <v>17959.0703125</v>
+      </c>
+      <c r="E2628">
+        <v>18072.900390625</v>
+      </c>
+      <c r="F2628">
+        <v>2333709800</v>
+      </c>
+      <c r="G2628" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2629">
+      <c r="A2629" s="2">
+        <v>45469</v>
+      </c>
+      <c r="B2629">
+        <v>17934.630859375</v>
+      </c>
+      <c r="C2629">
+        <v>18156.349609375</v>
+      </c>
+      <c r="D2629">
+        <v>17934.630859375</v>
+      </c>
+      <c r="E2629">
+        <v>18089.9296875</v>
+      </c>
+      <c r="F2629">
+        <v>2308525600</v>
+      </c>
+      <c r="G2629" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2630">
+      <c r="A2630" s="2">
+        <v>45470</v>
+      </c>
+      <c r="B2630">
+        <v>17946</v>
+      </c>
+      <c r="C2630">
+        <v>17961.919921875</v>
+      </c>
+      <c r="D2630">
+        <v>17677.330078125</v>
+      </c>
+      <c r="E2630">
+        <v>17716.470703125</v>
+      </c>
+      <c r="F2630">
+        <v>2806087800</v>
+      </c>
+      <c r="G2630" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2631">
+      <c r="A2631" s="2">
+        <v>45471</v>
+      </c>
+      <c r="B2631">
+        <v>17583.189453125</v>
+      </c>
+      <c r="C2631">
+        <v>17865.470703125</v>
+      </c>
+      <c r="D2631">
+        <v>17583.189453125</v>
+      </c>
+      <c r="E2631">
+        <v>17718.609375</v>
+      </c>
+      <c r="F2631">
+        <v>2826596300</v>
+      </c>
+      <c r="G2631" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2632">
+      <c r="A2632" s="2">
+        <v>45475</v>
+      </c>
+      <c r="B2632">
+        <v>17669.419921875</v>
+      </c>
+      <c r="C2632">
+        <v>17986.140625</v>
+      </c>
+      <c r="D2632">
+        <v>17669.419921875</v>
+      </c>
+      <c r="E2632">
+        <v>17769.140625</v>
+      </c>
+      <c r="F2632">
+        <v>3374290200</v>
+      </c>
+      <c r="G2632" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2633">
+      <c r="A2633" s="2">
+        <v>45476</v>
+      </c>
+      <c r="B2633">
+        <v>17841.76953125</v>
+      </c>
+      <c r="C2633">
+        <v>18017.759765625</v>
+      </c>
+      <c r="D2633">
+        <v>17808.26953125</v>
+      </c>
+      <c r="E2633">
+        <v>17978.5703125</v>
+      </c>
+      <c r="F2633">
+        <v>3089691800</v>
+      </c>
+      <c r="G2633" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2634">
+      <c r="A2634" s="2">
+        <v>45477</v>
+      </c>
+      <c r="B2634">
+        <v>18079.720703125</v>
+      </c>
+      <c r="C2634">
+        <v>18133.30078125</v>
+      </c>
+      <c r="D2634">
+        <v>17942.080078125</v>
+      </c>
+      <c r="E2634">
+        <v>18028.279296875</v>
+      </c>
+      <c r="F2634">
+        <v>2994630800</v>
+      </c>
+      <c r="G2634" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2635">
+      <c r="A2635" s="2">
+        <v>45478</v>
+      </c>
+      <c r="B2635">
+        <v>18035.76953125</v>
+      </c>
+      <c r="C2635">
+        <v>18105.009765625</v>
+      </c>
+      <c r="D2635">
+        <v>17799.609375</v>
+      </c>
+      <c r="E2635">
+        <v>17799.609375</v>
+      </c>
+      <c r="F2635">
+        <v>2886550200</v>
+      </c>
+      <c r="G2635" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2636">
+      <c r="A2636" s="2">
+        <v>45481</v>
+      </c>
+      <c r="B2636">
+        <v>17667.970703125</v>
+      </c>
+      <c r="C2636">
+        <v>17735.580078125</v>
+      </c>
+      <c r="D2636">
+        <v>17453.560546875</v>
+      </c>
+      <c r="E2636">
+        <v>17524.060546875</v>
+      </c>
+      <c r="F2636">
+        <v>2348970100</v>
+      </c>
+      <c r="G2636" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2637">
+      <c r="A2637" s="2">
+        <v>45482</v>
+      </c>
+      <c r="B2637">
+        <v>17481</v>
+      </c>
+      <c r="C2637">
+        <v>17617.640625</v>
+      </c>
+      <c r="D2637">
+        <v>17376.48046875</v>
+      </c>
+      <c r="E2637">
+        <v>17523.23046875</v>
+      </c>
+      <c r="F2637">
+        <v>2618911600</v>
+      </c>
+      <c r="G2637" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2638">
+      <c r="A2638" s="2">
+        <v>45483</v>
+      </c>
+      <c r="B2638">
+        <v>17613.5</v>
+      </c>
+      <c r="C2638">
+        <v>17765.880859375</v>
+      </c>
+      <c r="D2638">
+        <v>17455.080078125</v>
+      </c>
+      <c r="E2638">
+        <v>17471.669921875</v>
+      </c>
+      <c r="F2638">
+        <v>2641974200</v>
+      </c>
+      <c r="G2638" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2639">
+      <c r="A2639" s="2">
+        <v>45484</v>
+      </c>
+      <c r="B2639">
+        <v>17629.130859375</v>
+      </c>
+      <c r="C2639">
+        <v>17864.08984375</v>
+      </c>
+      <c r="D2639">
+        <v>17621.05078125</v>
+      </c>
+      <c r="E2639">
+        <v>17832.330078125</v>
+      </c>
+      <c r="F2639">
+        <v>2231597400</v>
+      </c>
+      <c r="G2639" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2640">
+      <c r="A2640" s="2">
+        <v>45485</v>
+      </c>
+      <c r="B2640">
+        <v>18020.169921875</v>
+      </c>
+      <c r="C2640">
+        <v>18317.310546875</v>
+      </c>
+      <c r="D2640">
+        <v>18020.169921875</v>
+      </c>
+      <c r="E2640">
+        <v>18293.380859375</v>
+      </c>
+      <c r="F2640">
+        <v>3059027200</v>
+      </c>
+      <c r="G2640" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2641">
+      <c r="A2641" s="2">
+        <v>45488</v>
+      </c>
+      <c r="B2641">
+        <v>18201.48046875</v>
+      </c>
+      <c r="C2641">
+        <v>18243.390625</v>
+      </c>
+      <c r="D2641">
+        <v>17946.490234375</v>
+      </c>
+      <c r="E2641">
+        <v>18015.939453125</v>
+      </c>
+      <c r="F2641">
+        <v>2326339500</v>
+      </c>
+      <c r="G2641" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2642">
+      <c r="A2642" s="2">
+        <v>45489</v>
+      </c>
+      <c r="B2642">
+        <v>17845.060546875</v>
+      </c>
+      <c r="C2642">
+        <v>17899.55078125</v>
+      </c>
+      <c r="D2642">
+        <v>17727.98046875</v>
+      </c>
+      <c r="E2642">
+        <v>17727.98046875</v>
+      </c>
+      <c r="F2642">
+        <v>2334968300</v>
+      </c>
+      <c r="G2642" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2643">
+      <c r="A2643" s="2">
+        <v>45490</v>
+      </c>
+      <c r="B2643">
+        <v>17741.76953125</v>
+      </c>
+      <c r="C2643">
+        <v>17807.6796875</v>
+      </c>
+      <c r="D2643">
+        <v>17658.6796875</v>
+      </c>
+      <c r="E2643">
+        <v>17739.41015625</v>
+      </c>
+      <c r="F2643">
+        <v>2757015800</v>
+      </c>
+      <c r="G2643" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2644">
+      <c r="A2644" s="2">
+        <v>45491</v>
+      </c>
+      <c r="B2644">
+        <v>17653.23046875</v>
+      </c>
+      <c r="C2644">
+        <v>17864.119140625</v>
+      </c>
+      <c r="D2644">
+        <v>17623.740234375</v>
+      </c>
+      <c r="E2644">
+        <v>17778.41015625</v>
+      </c>
+      <c r="F2644">
+        <v>2018291500</v>
+      </c>
+      <c r="G2644" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2645">
+      <c r="A2645" s="2">
+        <v>45492</v>
+      </c>
+      <c r="B2645">
+        <v>17603.80078125</v>
+      </c>
+      <c r="C2645">
+        <v>17629.970703125</v>
+      </c>
+      <c r="D2645">
+        <v>17376.23046875</v>
+      </c>
+      <c r="E2645">
+        <v>17417.6796875</v>
+      </c>
+      <c r="F2645">
+        <v>2811638800</v>
+      </c>
+      <c r="G2645" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2646">
+      <c r="A2646" s="2">
+        <v>45495</v>
+      </c>
+      <c r="B2646">
+        <v>17465.130859375</v>
+      </c>
+      <c r="C2646">
+        <v>17693.349609375</v>
+      </c>
+      <c r="D2646">
+        <v>17313.880859375</v>
+      </c>
+      <c r="E2646">
+        <v>17635.880859375</v>
+      </c>
+      <c r="F2646">
+        <v>2133630300</v>
+      </c>
+      <c r="G2646" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2647">
+      <c r="A2647" s="2">
+        <v>45496</v>
+      </c>
+      <c r="B2647">
+        <v>17679.55078125</v>
+      </c>
+      <c r="C2647">
+        <v>17707.6796875</v>
+      </c>
+      <c r="D2647">
+        <v>17451.859375</v>
+      </c>
+      <c r="E2647">
+        <v>17469.359375</v>
+      </c>
+      <c r="F2647">
+        <v>2216456000</v>
+      </c>
+      <c r="G2647" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2648">
+      <c r="A2648" s="2">
+        <v>45497</v>
+      </c>
+      <c r="B2648">
+        <v>17454.4296875</v>
+      </c>
+      <c r="C2648">
+        <v>17516.94921875</v>
+      </c>
+      <c r="D2648">
+        <v>17251.259765625</v>
+      </c>
+      <c r="E2648">
+        <v>17311.05078125</v>
+      </c>
+      <c r="F2648">
+        <v>2208182400</v>
+      </c>
+      <c r="G2648" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2649">
+      <c r="A2649" s="2">
+        <v>45498</v>
+      </c>
+      <c r="B2649">
+        <v>17260.830078125</v>
+      </c>
+      <c r="C2649">
+        <v>17288.4609375</v>
+      </c>
+      <c r="D2649">
+        <v>16964.51953125</v>
+      </c>
+      <c r="E2649">
+        <v>17021.91015625</v>
+      </c>
+      <c r="F2649">
+        <v>2401390700</v>
+      </c>
+      <c r="G2649" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2650">
+      <c r="A2650" s="2">
+        <v>45499</v>
+      </c>
+      <c r="B2650">
+        <v>17079.669921875</v>
+      </c>
+      <c r="C2650">
+        <v>17229.189453125</v>
+      </c>
+      <c r="D2650">
+        <v>16924.580078125</v>
+      </c>
+      <c r="E2650">
+        <v>17021.310546875</v>
+      </c>
+      <c r="F2650">
+        <v>2374210700</v>
+      </c>
+      <c r="G2650" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2651">
+      <c r="A2651" s="2">
+        <v>45502</v>
+      </c>
+      <c r="B2651">
+        <v>17196.44921875</v>
+      </c>
+      <c r="C2651">
+        <v>17358.66015625</v>
+      </c>
+      <c r="D2651">
+        <v>17154.119140625</v>
+      </c>
+      <c r="E2651">
+        <v>17238.33984375</v>
+      </c>
+      <c r="F2651">
+        <v>2258413800</v>
+      </c>
+      <c r="G2651" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2652">
+      <c r="A2652" s="2">
+        <v>45503</v>
+      </c>
+      <c r="B2652">
+        <v>17194.369140625</v>
+      </c>
+      <c r="C2652">
+        <v>17194.369140625</v>
+      </c>
+      <c r="D2652">
+        <v>16971.599609375</v>
+      </c>
+      <c r="E2652">
+        <v>17002.91015625</v>
+      </c>
+      <c r="F2652">
+        <v>2552688900</v>
+      </c>
+      <c r="G2652" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2653">
+      <c r="A2653" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B2653">
+        <v>17070.859375</v>
+      </c>
+      <c r="C2653">
+        <v>17400.240234375</v>
+      </c>
+      <c r="D2653">
+        <v>17015.830078125</v>
+      </c>
+      <c r="E2653">
+        <v>17344.599609375</v>
+      </c>
+      <c r="F2653">
+        <v>2678950500</v>
+      </c>
+      <c r="G2653" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2654">
+      <c r="A2654" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B2654">
+        <v>17327.849609375</v>
+      </c>
+      <c r="C2654">
+        <v>17408.94921875</v>
+      </c>
+      <c r="D2654">
+        <v>17248.119140625</v>
+      </c>
+      <c r="E2654">
+        <v>17304.9609375</v>
+      </c>
+      <c r="F2654">
+        <v>1933874700</v>
+      </c>
+      <c r="G2654" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2655">
+      <c r="A2655" s="2">
+        <v>45506</v>
+      </c>
+      <c r="B2655">
+        <v>17025.259765625</v>
+      </c>
+      <c r="C2655">
+        <v>17075.51953125</v>
+      </c>
+      <c r="D2655">
+        <v>16865.9296875</v>
+      </c>
+      <c r="E2655">
+        <v>16945.509765625</v>
+      </c>
+      <c r="F2655">
+        <v>2433818600</v>
+      </c>
+      <c r="G2655" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2656">
+      <c r="A2656" s="2">
+        <v>45509</v>
+      </c>
+      <c r="B2656">
+        <v>16676.8203125</v>
+      </c>
+      <c r="C2656">
+        <v>16944.58984375</v>
+      </c>
+      <c r="D2656">
+        <v>16441.439453125</v>
+      </c>
+      <c r="E2656">
+        <v>16698.359375</v>
+      </c>
+      <c r="F2656">
+        <v>3667470600</v>
+      </c>
+      <c r="G2656" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2657">
+      <c r="A2657" s="2">
+        <v>45510</v>
+      </c>
+      <c r="B2657">
+        <v>16861.30078125</v>
+      </c>
+      <c r="C2657">
+        <v>16908.970703125</v>
+      </c>
+      <c r="D2657">
+        <v>16611.140625</v>
+      </c>
+      <c r="E2657">
+        <v>16647.33984375</v>
+      </c>
+      <c r="F2657">
+        <v>2425958000</v>
+      </c>
+      <c r="G2657" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2658">
+      <c r="A2658" s="2">
+        <v>45511</v>
+      </c>
+      <c r="B2658">
+        <v>16684.779296875</v>
+      </c>
+      <c r="C2658">
+        <v>16988.259765625</v>
+      </c>
+      <c r="D2658">
+        <v>16684.779296875</v>
+      </c>
+      <c r="E2658">
+        <v>16877.859375</v>
+      </c>
+      <c r="F2658">
+        <v>2267420200</v>
+      </c>
+      <c r="G2658" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2659">
+      <c r="A2659" s="2">
+        <v>45512</v>
+      </c>
+      <c r="B2659">
+        <v>16773.0390625</v>
+      </c>
+      <c r="C2659">
+        <v>17023.099609375</v>
+      </c>
+      <c r="D2659">
+        <v>16665.060546875</v>
+      </c>
+      <c r="E2659">
+        <v>16891.830078125</v>
+      </c>
+      <c r="F2659">
+        <v>2114356200</v>
+      </c>
+      <c r="G2659" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2660">
+      <c r="A2660" s="2">
+        <v>45513</v>
+      </c>
+      <c r="B2660">
+        <v>17097.359375</v>
+      </c>
+      <c r="C2660">
+        <v>17252.220703125</v>
+      </c>
+      <c r="D2660">
+        <v>17079.349609375</v>
+      </c>
+      <c r="E2660">
+        <v>17090.23046875</v>
+      </c>
+      <c r="F2660">
+        <v>2145406500</v>
+      </c>
+      <c r="G2660" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2661">
+      <c r="A2661" s="2">
+        <v>45516</v>
+      </c>
+      <c r="B2661">
+        <v>17102.98046875</v>
+      </c>
+      <c r="C2661">
+        <v>17162.759765625</v>
+      </c>
+      <c r="D2661">
+        <v>17002.9296875</v>
+      </c>
+      <c r="E2661">
+        <v>17111.650390625</v>
+      </c>
+      <c r="F2661">
+        <v>1793074600</v>
+      </c>
+      <c r="G2661" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2662">
+      <c r="A2662" s="2">
+        <v>45517</v>
+      </c>
+      <c r="B2662">
+        <v>17160.2109375</v>
+      </c>
+      <c r="C2662">
+        <v>17252.880859375</v>
+      </c>
+      <c r="D2662">
+        <v>17074.689453125</v>
+      </c>
+      <c r="E2662">
+        <v>17174.060546875</v>
+      </c>
+      <c r="F2662">
+        <v>1934995900</v>
+      </c>
+      <c r="G2662" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2663">
+      <c r="A2663" s="2">
+        <v>45518</v>
+      </c>
+      <c r="B2663">
+        <v>17233.6796875</v>
+      </c>
+      <c r="C2663">
+        <v>17254.23046875</v>
+      </c>
+      <c r="D2663">
+        <v>17055.69921875</v>
+      </c>
+      <c r="E2663">
+        <v>17113.359375</v>
+      </c>
+      <c r="F2663">
+        <v>1574534000</v>
+      </c>
+      <c r="G2663" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2664">
+      <c r="A2664" s="2">
+        <v>45519</v>
+      </c>
+      <c r="B2664">
+        <v>17008.2109375</v>
+      </c>
+      <c r="C2664">
+        <v>17283.650390625</v>
+      </c>
+      <c r="D2664">
+        <v>16926.470703125</v>
+      </c>
+      <c r="E2664">
+        <v>17109.140625</v>
+      </c>
+      <c r="F2664">
+        <v>2407027500</v>
+      </c>
+      <c r="G2664" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2665">
+      <c r="A2665" s="2">
+        <v>45520</v>
+      </c>
+      <c r="B2665">
+        <v>17286.0390625</v>
+      </c>
+      <c r="C2665">
+        <v>17473.890625</v>
+      </c>
+      <c r="D2665">
+        <v>17255.859375</v>
+      </c>
+      <c r="E2665">
+        <v>17430.16015625</v>
+      </c>
+      <c r="F2665">
+        <v>2551716800</v>
+      </c>
+      <c r="G2665" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2666">
+      <c r="A2666" s="2">
+        <v>45523</v>
+      </c>
+      <c r="B2666">
+        <v>17569.66015625</v>
+      </c>
+      <c r="C2666">
+        <v>17685.859375</v>
+      </c>
+      <c r="D2666">
+        <v>17547.650390625</v>
+      </c>
+      <c r="E2666">
+        <v>17569.5703125</v>
+      </c>
+      <c r="F2666">
+        <v>2361570600</v>
+      </c>
+      <c r="G2666" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2667">
+      <c r="A2667" s="2">
+        <v>45524</v>
+      </c>
+      <c r="B2667">
+        <v>17661.689453125</v>
+      </c>
+      <c r="C2667">
+        <v>17661.689453125</v>
+      </c>
+      <c r="D2667">
+        <v>17449.990234375</v>
+      </c>
+      <c r="E2667">
+        <v>17511.080078125</v>
+      </c>
+      <c r="F2667">
+        <v>1961800000</v>
+      </c>
+      <c r="G2667" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2668">
+      <c r="A2668" s="2">
+        <v>45525</v>
+      </c>
+      <c r="B2668">
+        <v>17313.859375</v>
+      </c>
+      <c r="C2668">
+        <v>17415.48046875</v>
+      </c>
+      <c r="D2668">
+        <v>17232.130859375</v>
+      </c>
+      <c r="E2668">
+        <v>17391.009765625</v>
+      </c>
+      <c r="F2668">
+        <v>2060224300</v>
+      </c>
+      <c r="G2668" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2669">
+      <c r="A2669" s="2">
+        <v>45526</v>
+      </c>
+      <c r="B2669">
+        <v>17497.630859375</v>
+      </c>
+      <c r="C2669">
+        <v>17652.80078125</v>
+      </c>
+      <c r="D2669">
+        <v>17389.939453125</v>
+      </c>
+      <c r="E2669">
+        <v>17641</v>
+      </c>
+      <c r="F2669">
+        <v>2945729800</v>
+      </c>
+      <c r="G2669" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2670">
+      <c r="A2670" s="2">
+        <v>45527</v>
+      </c>
+      <c r="B2670">
+        <v>17521.1796875</v>
+      </c>
+      <c r="C2670">
+        <v>17635.69921875</v>
+      </c>
+      <c r="D2670">
+        <v>17493.080078125</v>
+      </c>
+      <c r="E2670">
+        <v>17612.099609375</v>
+      </c>
+      <c r="F2670">
+        <v>2054121600</v>
+      </c>
+      <c r="G2670" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2671">
+      <c r="A2671" s="2">
+        <v>45530</v>
+      </c>
+      <c r="B2671">
+        <v>17709.26953125</v>
+      </c>
+      <c r="C2671">
+        <v>17826.05078125</v>
+      </c>
+      <c r="D2671">
+        <v>17709.26953125</v>
+      </c>
+      <c r="E2671">
+        <v>17798.73046875</v>
+      </c>
+      <c r="F2671">
+        <v>1970098500</v>
+      </c>
+      <c r="G2671" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2672">
+      <c r="A2672" s="2">
+        <v>45531</v>
+      </c>
+      <c r="B2672">
+        <v>17663.80078125</v>
+      </c>
+      <c r="C2672">
+        <v>17879.26953125</v>
+      </c>
+      <c r="D2672">
+        <v>17624.419921875</v>
+      </c>
+      <c r="E2672">
+        <v>17874.669921875</v>
+      </c>
+      <c r="F2672">
+        <v>2702698800</v>
+      </c>
+      <c r="G2672" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2673">
+      <c r="A2673" s="2">
+        <v>45532</v>
+      </c>
+      <c r="B2673">
+        <v>17847.990234375</v>
+      </c>
+      <c r="C2673">
+        <v>17879.009765625</v>
+      </c>
+      <c r="D2673">
+        <v>17659.2890625</v>
+      </c>
+      <c r="E2673">
+        <v>17692.44921875</v>
+      </c>
+      <c r="F2673">
+        <v>2184592400</v>
+      </c>
+      <c r="G2673" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2674">
+      <c r="A2674" s="2">
+        <v>45533</v>
+      </c>
+      <c r="B2674">
+        <v>17614.41015625</v>
+      </c>
+      <c r="C2674">
+        <v>17797.169921875</v>
+      </c>
+      <c r="D2674">
+        <v>17502.529296875</v>
+      </c>
+      <c r="E2674">
+        <v>17786.3203125</v>
+      </c>
+      <c r="F2674">
+        <v>2858172500</v>
+      </c>
+      <c r="G2674" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2675">
+      <c r="A2675" s="2">
+        <v>45534</v>
+      </c>
+      <c r="B2675">
+        <v>17794.41015625</v>
+      </c>
+      <c r="C2675">
+        <v>18202.599609375</v>
+      </c>
+      <c r="D2675">
+        <v>17778.099609375</v>
+      </c>
+      <c r="E2675">
+        <v>17989.0703125</v>
+      </c>
+      <c r="F2675">
+        <v>4753806200</v>
+      </c>
+      <c r="G2675" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2676">
+      <c r="A2676" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B2676">
+        <v>17862.58984375</v>
+      </c>
+      <c r="C2676">
+        <v>17862.58984375</v>
+      </c>
+      <c r="D2676">
+        <v>17645.919921875</v>
+      </c>
+      <c r="E2676">
+        <v>17691.970703125</v>
+      </c>
+      <c r="F2676">
+        <v>3077120300</v>
+      </c>
+      <c r="G2676" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2677">
+      <c r="A2677" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B2677">
+        <v>17665.9296875</v>
+      </c>
+      <c r="C2677">
+        <v>17725.509765625</v>
+      </c>
+      <c r="D2677">
+        <v>17583.69921875</v>
+      </c>
+      <c r="E2677">
+        <v>17651.490234375</v>
+      </c>
+      <c r="F2677">
+        <v>2470760400</v>
+      </c>
+      <c r="G2677" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2678">
+      <c r="A2678" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B2678">
+        <v>17474.740234375</v>
+      </c>
+      <c r="C2678">
+        <v>17531.05078125</v>
+      </c>
+      <c r="D2678">
+        <v>17333.30078125</v>
+      </c>
+      <c r="E2678">
+        <v>17457.33984375</v>
+      </c>
+      <c r="F2678">
+        <v>2601237200</v>
+      </c>
+      <c r="G2678" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2679">
+      <c r="A2679" s="2">
+        <v>45540</v>
+      </c>
+      <c r="B2679">
+        <v>17469.9609375</v>
+      </c>
+      <c r="C2679">
+        <v>17555.609375</v>
+      </c>
+      <c r="D2679">
+        <v>17332.490234375</v>
+      </c>
+      <c r="E2679">
+        <v>17444.30078125</v>
+      </c>
+      <c r="F2679">
+        <v>2558634900</v>
+      </c>
+      <c r="G2679" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2680">
+      <c r="A2680" s="2">
+        <v>45544</v>
+      </c>
+      <c r="B2680">
+        <v>17261.890625</v>
+      </c>
+      <c r="C2680">
+        <v>17305.91015625</v>
+      </c>
+      <c r="D2680">
+        <v>17067.44921875</v>
+      </c>
+      <c r="E2680">
+        <v>17196.9609375</v>
+      </c>
+      <c r="F2680">
+        <v>3841864100</v>
+      </c>
+      <c r="G2680" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2681">
+      <c r="A2681" s="2">
+        <v>45545</v>
+      </c>
+      <c r="B2681">
+        <v>17205.419921875</v>
+      </c>
+      <c r="C2681">
+        <v>17297.94921875</v>
+      </c>
+      <c r="D2681">
+        <v>17133.5</v>
+      </c>
+      <c r="E2681">
+        <v>17234.08984375</v>
+      </c>
+      <c r="F2681">
+        <v>2786726500</v>
+      </c>
+      <c r="G2681" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2682">
+      <c r="A2682" s="2">
+        <v>45546</v>
+      </c>
+      <c r="B2682">
+        <v>17051.83984375</v>
+      </c>
+      <c r="C2682">
+        <v>17124.9609375</v>
+      </c>
+      <c r="D2682">
+        <v>16964.279296875</v>
+      </c>
+      <c r="E2682">
+        <v>17108.7109375</v>
+      </c>
+      <c r="F2682">
+        <v>3071142700</v>
+      </c>
+      <c r="G2682" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2683">
+      <c r="A2683" s="2">
+        <v>45547</v>
+      </c>
+      <c r="B2683">
+        <v>17177.30078125</v>
+      </c>
+      <c r="C2683">
+        <v>17334.189453125</v>
+      </c>
+      <c r="D2683">
+        <v>17127.25</v>
+      </c>
+      <c r="E2683">
+        <v>17240.390625</v>
+      </c>
+      <c r="F2683">
+        <v>2374153300</v>
+      </c>
+      <c r="G2683" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2684">
+      <c r="A2684" s="2">
+        <v>45548</v>
+      </c>
+      <c r="B2684">
+        <v>17298.349609375</v>
+      </c>
+      <c r="C2684">
+        <v>17540.810546875</v>
+      </c>
+      <c r="D2684">
+        <v>17298.349609375</v>
+      </c>
+      <c r="E2684">
+        <v>17369.08984375</v>
+      </c>
+      <c r="F2684">
+        <v>2139977900</v>
+      </c>
+      <c r="G2684" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2685">
+      <c r="A2685" s="2">
+        <v>45551</v>
+      </c>
+      <c r="B2685">
+        <v>17252.76953125</v>
+      </c>
+      <c r="C2685">
+        <v>17422.119140625</v>
+      </c>
+      <c r="D2685">
+        <v>17177.080078125</v>
+      </c>
+      <c r="E2685">
+        <v>17422.119140625</v>
+      </c>
+      <c r="F2685">
+        <v>1127924500</v>
+      </c>
+      <c r="G2685" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2686">
+      <c r="A2686" s="2">
+        <v>45552</v>
+      </c>
+      <c r="B2686">
+        <v>17386.75</v>
+      </c>
+      <c r="C2686">
+        <v>17715.76953125</v>
+      </c>
+      <c r="D2686">
+        <v>17368.140625</v>
+      </c>
+      <c r="E2686">
+        <v>17660.01953125</v>
+      </c>
+      <c r="F2686">
+        <v>1665721500</v>
+      </c>
+      <c r="G2686" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2687">
+      <c r="A2687" s="2">
+        <v>45554</v>
+      </c>
+      <c r="B2687">
+        <v>17633.9296875</v>
+      </c>
+      <c r="C2687">
+        <v>18071.099609375</v>
+      </c>
+      <c r="D2687">
+        <v>17602.44921875</v>
+      </c>
+      <c r="E2687">
+        <v>18013.16015625</v>
+      </c>
+      <c r="F2687">
+        <v>3436673300</v>
+      </c>
+      <c r="G2687" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2688">
+      <c r="A2688" s="2">
+        <v>45555</v>
+      </c>
+      <c r="B2688">
+        <v>18069.330078125</v>
+      </c>
+      <c r="C2688">
+        <v>18355.150390625</v>
+      </c>
+      <c r="D2688">
+        <v>18047.130859375</v>
+      </c>
+      <c r="E2688">
+        <v>18258.5703125</v>
+      </c>
+      <c r="F2688">
+        <v>4005306800</v>
+      </c>
+      <c r="G2688" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2689">
+      <c r="A2689" s="2">
+        <v>45558</v>
+      </c>
+      <c r="B2689">
+        <v>18237.41015625</v>
+      </c>
+      <c r="C2689">
+        <v>18426.919921875</v>
+      </c>
+      <c r="D2689">
+        <v>18212.580078125</v>
+      </c>
+      <c r="E2689">
+        <v>18247.109375</v>
+      </c>
+      <c r="F2689">
+        <v>2724524400</v>
+      </c>
+      <c r="G2689" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2690">
+      <c r="A2690" s="2">
+        <v>45559</v>
+      </c>
+      <c r="B2690">
+        <v>18573.919921875</v>
+      </c>
+      <c r="C2690">
+        <v>19002.05078125</v>
+      </c>
+      <c r="D2690">
+        <v>18532.279296875</v>
+      </c>
+      <c r="E2690">
+        <v>19000.560546875</v>
+      </c>
+      <c r="F2690">
+        <v>6008421400</v>
+      </c>
+      <c r="G2690" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2691">
+      <c r="A2691" s="2">
+        <v>45560</v>
+      </c>
+      <c r="B2691">
+        <v>19592.4296875</v>
+      </c>
+      <c r="C2691">
+        <v>19592.4296875</v>
+      </c>
+      <c r="D2691">
+        <v>19072.720703125</v>
+      </c>
+      <c r="E2691">
+        <v>19129.099609375</v>
+      </c>
+      <c r="F2691">
+        <v>6507488700</v>
+      </c>
+      <c r="G2691" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2692">
+      <c r="A2692" s="2">
+        <v>45561</v>
+      </c>
+      <c r="B2692">
+        <v>19302.5703125</v>
+      </c>
+      <c r="C2692">
+        <v>19954.060546875</v>
+      </c>
+      <c r="D2692">
+        <v>19176.580078125</v>
+      </c>
+      <c r="E2692">
+        <v>19924.580078125</v>
+      </c>
+      <c r="F2692">
+        <v>7428256300</v>
+      </c>
+      <c r="G2692" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2693">
+      <c r="A2693" s="2">
+        <v>45562</v>
+      </c>
+      <c r="B2693">
+        <v>20446.740234375</v>
+      </c>
+      <c r="C2693">
+        <v>20743.19921875</v>
+      </c>
+      <c r="D2693">
+        <v>20268.630859375</v>
+      </c>
+      <c r="E2693">
+        <v>20632.30078125</v>
+      </c>
+      <c r="F2693">
+        <v>9656093400</v>
+      </c>
+      <c r="G2693" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2694">
+      <c r="A2694" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B2694">
+        <v>21175.41015625</v>
+      </c>
+      <c r="C2694">
+        <v>21488.75</v>
+      </c>
+      <c r="D2694">
+        <v>20789.9296875</v>
+      </c>
+      <c r="E2694">
+        <v>21133.6796875</v>
+      </c>
+      <c r="F2694">
+        <v>1035706200</v>
+      </c>
+      <c r="G2694" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2695">
+      <c r="A2695" s="2">
+        <v>45567</v>
+      </c>
+      <c r="B2695">
+        <v>21289.599609375</v>
+      </c>
+      <c r="C2695">
+        <v>22667.740234375</v>
+      </c>
+      <c r="D2695">
+        <v>21289.599609375</v>
+      </c>
+      <c r="E2695">
+        <v>22443.73046875</v>
+      </c>
+      <c r="F2695">
+        <v>7696286600</v>
+      </c>
+      <c r="G2695" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2696">
+      <c r="A2696" s="2">
+        <v>45568</v>
+      </c>
+      <c r="B2696">
+        <v>22484.0390625</v>
+      </c>
+      <c r="C2696">
+        <v>22484.0390625</v>
+      </c>
+      <c r="D2696">
+        <v>21442.25</v>
+      </c>
+      <c r="E2696">
+        <v>22113.509765625</v>
+      </c>
+      <c r="F2696">
+        <v>4942180900</v>
+      </c>
+      <c r="G2696" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2697">
+      <c r="A2697" s="2">
+        <v>45569</v>
+      </c>
+      <c r="B2697">
+        <v>22015.080078125</v>
+      </c>
+      <c r="C2697">
+        <v>22742.359375</v>
+      </c>
+      <c r="D2697">
+        <v>21824.6796875</v>
+      </c>
+      <c r="E2697">
+        <v>22736.869140625</v>
+      </c>
+      <c r="F2697">
+        <v>4619951200</v>
+      </c>
+      <c r="G2697" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2698">
+      <c r="A2698" s="2">
+        <v>45572</v>
+      </c>
+      <c r="B2698">
+        <v>22948.349609375</v>
+      </c>
+      <c r="C2698">
+        <v>23241.740234375</v>
+      </c>
+      <c r="D2698">
+        <v>22719.91015625</v>
+      </c>
+      <c r="E2698">
+        <v>23099.779296875</v>
+      </c>
+      <c r="F2698">
+        <v>5098400000</v>
+      </c>
+      <c r="G2698" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2699">
+      <c r="A2699" s="2">
+        <v>45573</v>
+      </c>
+      <c r="B2699">
+        <v>22849.23046875</v>
+      </c>
+      <c r="C2699">
+        <v>22902.359375</v>
+      </c>
+      <c r="D2699">
+        <v>20762.8203125</v>
+      </c>
+      <c r="E2699">
+        <v>20926.7890625</v>
+      </c>
+      <c r="F2699">
+        <v>11257900000</v>
+      </c>
+      <c r="G2699" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2700">
+      <c r="A2700" s="2">
+        <v>45574</v>
+      </c>
+      <c r="B2700">
+        <v>21290.0390625</v>
+      </c>
+      <c r="C2700">
+        <v>21417.75</v>
+      </c>
+      <c r="D2700">
+        <v>20190.529296875</v>
+      </c>
+      <c r="E2700">
+        <v>20637.240234375</v>
+      </c>
+      <c r="F2700">
+        <v>7953600000</v>
+      </c>
+      <c r="G2700" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2701">
+      <c r="A2701" s="2">
+        <v>45575</v>
+      </c>
+      <c r="B2701">
+        <v>21046</v>
+      </c>
+      <c r="C2701">
+        <v>21622.650390625</v>
+      </c>
+      <c r="D2701">
+        <v>20983.939453125</v>
+      </c>
+      <c r="E2701">
+        <v>21251.98046875</v>
+      </c>
+      <c r="F2701">
+        <v>6039900000</v>
+      </c>
+      <c r="G2701" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2702">
+      <c r="A2702" s="2">
+        <v>45579</v>
+      </c>
+      <c r="B2702">
+        <v>21228.650390625</v>
+      </c>
+      <c r="C2702">
+        <v>21348.859375</v>
+      </c>
+      <c r="D2702">
+        <v>20693.75</v>
+      </c>
+      <c r="E2702">
+        <v>21092.869140625</v>
+      </c>
+      <c r="F2702">
+        <v>5743300000</v>
+      </c>
+      <c r="G2702" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2703">
+      <c r="A2703" s="2">
+        <v>45580</v>
+      </c>
+      <c r="B2703">
+        <v>21046.189453125</v>
+      </c>
+      <c r="C2703">
+        <v>21095.009765625</v>
+      </c>
+      <c r="D2703">
+        <v>20154.7109375</v>
+      </c>
+      <c r="E2703">
+        <v>20318.7890625</v>
+      </c>
+      <c r="F2703">
+        <v>4906400000</v>
+      </c>
+      <c r="G2703" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2704">
+      <c r="A2704" s="2">
+        <v>45581</v>
+      </c>
+      <c r="B2704">
+        <v>20144.75</v>
+      </c>
+      <c r="C2704">
+        <v>20548.1796875</v>
+      </c>
+      <c r="D2704">
+        <v>20131.33984375</v>
+      </c>
+      <c r="E2704">
+        <v>20286.849609375</v>
+      </c>
+      <c r="F2704">
+        <v>4158700000</v>
+      </c>
+      <c r="G2704" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2705">
+      <c r="A2705" s="2">
+        <v>45582</v>
+      </c>
+      <c r="B2705">
+        <v>20471.990234375</v>
+      </c>
+      <c r="C2705">
+        <v>20783.349609375</v>
+      </c>
+      <c r="D2705">
+        <v>19977.349609375</v>
+      </c>
+      <c r="E2705">
+        <v>20079.099609375</v>
+      </c>
+      <c r="F2705">
+        <v>3646900000</v>
+      </c>
+      <c r="G2705" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2706">
+      <c r="A2706" s="2">
+        <v>45583</v>
+      </c>
+      <c r="B2706">
+        <v>20106.650390625</v>
+      </c>
+      <c r="C2706">
+        <v>20952.990234375</v>
+      </c>
+      <c r="D2706">
+        <v>20058.669921875</v>
+      </c>
+      <c r="E2706">
+        <v>20804.109375</v>
+      </c>
+      <c r="F2706">
+        <v>4586200000</v>
+      </c>
+      <c r="G2706" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2707">
+      <c r="A2707" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B2707">
+        <v>20730.94921875</v>
+      </c>
+      <c r="C2707">
+        <v>20845.5703125</v>
+      </c>
+      <c r="D2707">
+        <v>20423.08984375</v>
+      </c>
+      <c r="E2707">
+        <v>20478.4609375</v>
+      </c>
+      <c r="F2707">
+        <v>3775000000</v>
+      </c>
+      <c r="G2707" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2708">
+      <c r="A2708" s="2">
+        <v>45587</v>
+      </c>
+      <c r="B2708">
+        <v>20433.490234375</v>
+      </c>
+      <c r="C2708">
+        <v>20629.48046875</v>
+      </c>
+      <c r="D2708">
+        <v>20380.0390625</v>
+      </c>
+      <c r="E2708">
+        <v>20498.94921875</v>
+      </c>
+      <c r="F2708">
+        <v>2556600000</v>
+      </c>
+      <c r="G2708" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2709">
+      <c r="A2709" s="2">
+        <v>45588</v>
+      </c>
+      <c r="B2709">
+        <v>20525.439453125</v>
+      </c>
+      <c r="C2709">
+        <v>20942.259765625</v>
+      </c>
+      <c r="D2709">
+        <v>20448.83984375</v>
+      </c>
+      <c r="E2709">
+        <v>20760.150390625</v>
+      </c>
+      <c r="F2709">
+        <v>3542000000</v>
+      </c>
+      <c r="G2709" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2710">
+      <c r="A2710" s="2">
+        <v>45589</v>
+      </c>
+      <c r="B2710">
+        <v>20576.05078125</v>
+      </c>
+      <c r="C2710">
+        <v>20685.4609375</v>
+      </c>
+      <c r="D2710">
+        <v>20448.4609375</v>
+      </c>
+      <c r="E2710">
+        <v>20489.619140625</v>
+      </c>
+      <c r="F2710">
+        <v>2725600000</v>
+      </c>
+      <c r="G2710" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2711">
+      <c r="A2711" s="2">
+        <v>45590</v>
+      </c>
+      <c r="B2711">
+        <v>20521.94921875</v>
+      </c>
+      <c r="C2711">
+        <v>20784.470703125</v>
+      </c>
+      <c r="D2711">
+        <v>20521.94921875</v>
+      </c>
+      <c r="E2711">
+        <v>20590.150390625</v>
+      </c>
+      <c r="F2711">
+        <v>2984600000</v>
+      </c>
+      <c r="G2711" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2712">
+      <c r="A2712" s="2">
+        <v>45593</v>
+      </c>
+      <c r="B2712">
+        <v>20592.740234375</v>
+      </c>
+      <c r="C2712">
+        <v>20669.41015625</v>
+      </c>
+      <c r="D2712">
+        <v>20428.939453125</v>
+      </c>
+      <c r="E2712">
+        <v>20599.359375</v>
+      </c>
+      <c r="F2712">
+        <v>2978600000</v>
+      </c>
+      <c r="G2712" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2713">
+      <c r="A2713" s="2">
+        <v>45594</v>
+      </c>
+      <c r="B2713">
+        <v>20729.98046875</v>
+      </c>
+      <c r="C2713">
+        <v>20890.080078125</v>
+      </c>
+      <c r="D2713">
+        <v>20563.740234375</v>
+      </c>
+      <c r="E2713">
+        <v>20701.140625</v>
+      </c>
+      <c r="F2713">
+        <v>3137700000</v>
+      </c>
+      <c r="G2713" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2714">
+      <c r="A2714" s="2">
+        <v>45595</v>
+      </c>
+      <c r="B2714">
+        <v>20586.55078125</v>
+      </c>
+      <c r="C2714">
+        <v>20681.51953125</v>
+      </c>
+      <c r="D2714">
+        <v>20270.0703125</v>
+      </c>
+      <c r="E2714">
+        <v>20380.640625</v>
+      </c>
+      <c r="F2714">
+        <v>3626500000</v>
+      </c>
+      <c r="G2714" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2715">
+      <c r="A2715" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B2715">
+        <v>20414.19921875</v>
+      </c>
+      <c r="C2715">
+        <v>20553.30078125</v>
+      </c>
+      <c r="D2715">
+        <v>20317.330078125</v>
+      </c>
+      <c r="E2715">
+        <v>20317.330078125</v>
+      </c>
+      <c r="F2715">
+        <v>3238200000</v>
+      </c>
+      <c r="G2715" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2716">
+      <c r="A2716" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B2716">
+        <v>20427.880859375</v>
+      </c>
+      <c r="C2716">
+        <v>20667.220703125</v>
+      </c>
+      <c r="D2716">
+        <v>20353.33984375</v>
+      </c>
+      <c r="E2716">
+        <v>20506.4296875</v>
+      </c>
+      <c r="F2716">
+        <v>3278800000</v>
+      </c>
+      <c r="G2716" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2717">
+      <c r="A2717" s="2">
+        <v>45600</v>
+      </c>
+      <c r="B2717">
+        <v>20584.44921875</v>
+      </c>
+      <c r="C2717">
+        <v>20633.580078125</v>
+      </c>
+      <c r="D2717">
+        <v>20446.259765625</v>
+      </c>
+      <c r="E2717">
+        <v>20567.51953125</v>
+      </c>
+      <c r="F2717">
+        <v>2463600000</v>
+      </c>
+      <c r="G2717" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2718">
+      <c r="A2718" s="2">
+        <v>45601</v>
+      </c>
+      <c r="B2718">
+        <v>20409.939453125</v>
+      </c>
+      <c r="C2718">
+        <v>21006.970703125</v>
+      </c>
+      <c r="D2718">
+        <v>20409.939453125</v>
+      </c>
+      <c r="E2718">
+        <v>21006.970703125</v>
+      </c>
+      <c r="F2718">
+        <v>3147300000</v>
+      </c>
+      <c r="G2718" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2719">
+      <c r="A2719" s="2">
+        <v>45602</v>
+      </c>
+      <c r="B2719">
+        <v>20791.80078125</v>
+      </c>
+      <c r="C2719">
+        <v>20859.66015625</v>
+      </c>
+      <c r="D2719">
+        <v>20361.919921875</v>
+      </c>
+      <c r="E2719">
+        <v>20538.380859375</v>
+      </c>
+      <c r="F2719">
+        <v>3903900000</v>
+      </c>
+      <c r="G2719" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2720">
+      <c r="A2720" s="2">
+        <v>45603</v>
+      </c>
+      <c r="B2720">
+        <v>20386.359375</v>
+      </c>
+      <c r="C2720">
+        <v>20986.310546875</v>
+      </c>
+      <c r="D2720">
+        <v>20370.439453125</v>
+      </c>
+      <c r="E2720">
+        <v>20953.33984375</v>
+      </c>
+      <c r="F2720">
+        <v>4317500000</v>
+      </c>
+      <c r="G2720" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2721">
+      <c r="A2721" s="2">
+        <v>45604</v>
+      </c>
+      <c r="B2721">
+        <v>21199.9609375</v>
+      </c>
+      <c r="C2721">
+        <v>21355.439453125</v>
+      </c>
+      <c r="D2721">
+        <v>20705.119140625</v>
+      </c>
+      <c r="E2721">
+        <v>20728.189453125</v>
+      </c>
+      <c r="F2721">
+        <v>4153500000</v>
+      </c>
+      <c r="G2721" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2722">
+      <c r="A2722" s="2">
+        <v>45607</v>
+      </c>
+      <c r="B2722">
+        <v>20258.140625</v>
+      </c>
+      <c r="C2722">
+        <v>20505.009765625</v>
+      </c>
+      <c r="D2722">
+        <v>20151.380859375</v>
+      </c>
+      <c r="E2722">
+        <v>20426.9296875</v>
+      </c>
+      <c r="F2722">
+        <v>3649700000</v>
+      </c>
+      <c r="G2722" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2723">
+      <c r="A2723" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B2723">
+        <v>20334.08984375</v>
+      </c>
+      <c r="C2723">
+        <v>20517.240234375</v>
+      </c>
+      <c r="D2723">
+        <v>19761.310546875</v>
+      </c>
+      <c r="E2723">
+        <v>19846.880859375</v>
+      </c>
+      <c r="F2723">
+        <v>4319500000</v>
+      </c>
+      <c r="G2723" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2724">
+      <c r="A2724" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B2724">
+        <v>19671.919921875</v>
+      </c>
+      <c r="C2724">
+        <v>19840.279296875</v>
+      </c>
+      <c r="D2724">
+        <v>19608.3203125</v>
+      </c>
+      <c r="E2724">
+        <v>19823.44921875</v>
+      </c>
+      <c r="F2724">
+        <v>2862300000</v>
+      </c>
+      <c r="G2724" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2725">
+      <c r="A2725" s="2">
+        <v>45610</v>
+      </c>
+      <c r="B2725">
+        <v>19626.259765625</v>
+      </c>
+      <c r="C2725">
+        <v>19859.169921875</v>
+      </c>
+      <c r="D2725">
+        <v>19392.58984375</v>
+      </c>
+      <c r="E2725">
+        <v>19435.810546875</v>
+      </c>
+      <c r="F2725">
+        <v>3310000000</v>
+      </c>
+      <c r="G2725" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2726">
+      <c r="A2726" s="2">
+        <v>45611</v>
+      </c>
+      <c r="B2726">
+        <v>19503.029296875</v>
+      </c>
+      <c r="C2726">
+        <v>19608.240234375</v>
+      </c>
+      <c r="D2726">
+        <v>19332.33984375</v>
+      </c>
+      <c r="E2726">
+        <v>19426.33984375</v>
+      </c>
+      <c r="F2726">
+        <v>2947200000</v>
+      </c>
+      <c r="G2726" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2727">
+      <c r="A2727" s="2">
+        <v>45614</v>
+      </c>
+      <c r="B2727">
+        <v>19595.5</v>
+      </c>
+      <c r="C2727">
+        <v>19781.080078125</v>
+      </c>
+      <c r="D2727">
+        <v>19470.4296875</v>
+      </c>
+      <c r="E2727">
+        <v>19576.609375</v>
+      </c>
+      <c r="F2727">
+        <v>3176400000</v>
+      </c>
+      <c r="G2727" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2728">
+      <c r="A2728" s="2">
+        <v>45615</v>
+      </c>
+      <c r="B2728">
+        <v>19699.810546875</v>
+      </c>
+      <c r="C2728">
+        <v>19758.5703125</v>
+      </c>
+      <c r="D2728">
+        <v>19522.58984375</v>
+      </c>
+      <c r="E2728">
+        <v>19663.669921875</v>
+      </c>
+      <c r="F2728">
+        <v>2529900000</v>
+      </c>
+      <c r="G2728" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2729">
+      <c r="A2729" s="2">
+        <v>45616</v>
+      </c>
+      <c r="B2729">
+        <v>19623.390625</v>
+      </c>
+      <c r="C2729">
+        <v>19752.9296875</v>
+      </c>
+      <c r="D2729">
+        <v>19575.91015625</v>
+      </c>
+      <c r="E2729">
+        <v>19705.009765625</v>
+      </c>
+      <c r="F2729">
+        <v>2057500000</v>
+      </c>
+      <c r="G2729" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2730">
+      <c r="A2730" s="2">
+        <v>45617</v>
+      </c>
+      <c r="B2730">
+        <v>19646.0390625</v>
+      </c>
+      <c r="C2730">
+        <v>19764.619140625</v>
+      </c>
+      <c r="D2730">
+        <v>19552.5</v>
+      </c>
+      <c r="E2730">
+        <v>19601.109375</v>
+      </c>
+      <c r="F2730">
+        <v>2079200000</v>
+      </c>
+      <c r="G2730" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2731">
+      <c r="A2731" s="2">
+        <v>45618</v>
+      </c>
+      <c r="B2731">
+        <v>19613.55078125</v>
+      </c>
+      <c r="C2731">
+        <v>19711.400390625</v>
+      </c>
+      <c r="D2731">
+        <v>19134.58984375</v>
+      </c>
+      <c r="E2731">
+        <v>19229.970703125</v>
+      </c>
+      <c r="F2731">
+        <v>3237600000</v>
+      </c>
+      <c r="G2731" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2732">
+      <c r="A2732" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B2732">
+        <v>19307.33984375</v>
+      </c>
+      <c r="C2732">
+        <v>19351.060546875</v>
+      </c>
+      <c r="D2732">
+        <v>19102.060546875</v>
+      </c>
+      <c r="E2732">
+        <v>19150.990234375</v>
+      </c>
+      <c r="F2732">
+        <v>4385600000</v>
+      </c>
+      <c r="G2732" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2733">
+      <c r="A2733" s="2">
+        <v>45622</v>
+      </c>
+      <c r="B2733">
+        <v>19054.400390625</v>
+      </c>
+      <c r="C2733">
+        <v>19295.75</v>
+      </c>
+      <c r="D2733">
+        <v>19054.400390625</v>
+      </c>
+      <c r="E2733">
+        <v>19159.19921875</v>
+      </c>
+      <c r="F2733">
+        <v>2384700000</v>
+      </c>
+      <c r="G2733" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2734">
+      <c r="A2734" s="2">
+        <v>45623</v>
+      </c>
+      <c r="B2734">
+        <v>19187.05078125</v>
+      </c>
+      <c r="C2734">
+        <v>19660.990234375</v>
+      </c>
+      <c r="D2734">
+        <v>19061.599609375</v>
+      </c>
+      <c r="E2734">
+        <v>19603.130859375</v>
+      </c>
+      <c r="F2734">
+        <v>2374800000</v>
+      </c>
+      <c r="G2734" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2735">
+      <c r="A2735" s="2">
+        <v>45624</v>
+      </c>
+      <c r="B2735">
+        <v>19558.1796875</v>
+      </c>
+      <c r="C2735">
+        <v>19558.1796875</v>
+      </c>
+      <c r="D2735">
+        <v>19312.259765625</v>
+      </c>
+      <c r="E2735">
+        <v>19366.9609375</v>
+      </c>
+      <c r="F2735">
+        <v>2160800000</v>
+      </c>
+      <c r="G2735" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2736">
+      <c r="A2736" s="2">
+        <v>45625</v>
+      </c>
+      <c r="B2736">
+        <v>19346.619140625</v>
+      </c>
+      <c r="C2736">
+        <v>19658.19921875</v>
+      </c>
+      <c r="D2736">
+        <v>19312.41015625</v>
+      </c>
+      <c r="E2736">
+        <v>19423.609375</v>
+      </c>
+      <c r="F2736">
+        <v>2487600000</v>
+      </c>
+      <c r="G2736" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2737">
+      <c r="A2737" s="2">
+        <v>45628</v>
+      </c>
+      <c r="B2737">
+        <v>19442.310546875</v>
+      </c>
+      <c r="C2737">
+        <v>19690.220703125</v>
+      </c>
+      <c r="D2737">
+        <v>19387.19921875</v>
+      </c>
+      <c r="E2737">
+        <v>19550.2890625</v>
+      </c>
+      <c r="F2737">
+        <v>2392300000</v>
+      </c>
+      <c r="G2737" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2738">
+      <c r="A2738" s="2">
+        <v>45629</v>
+      </c>
+      <c r="B2738">
+        <v>19585.349609375</v>
+      </c>
+      <c r="C2738">
+        <v>19768.3203125</v>
+      </c>
+      <c r="D2738">
+        <v>19386.8203125</v>
+      </c>
+      <c r="E2738">
+        <v>19746.3203125</v>
+      </c>
+      <c r="F2738">
+        <v>2625300000</v>
+      </c>
+      <c r="G2738" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2739">
+      <c r="A2739" s="2">
+        <v>45630</v>
+      </c>
+      <c r="B2739">
+        <v>19722.150390625</v>
+      </c>
+      <c r="C2739">
+        <v>19823.08984375</v>
+      </c>
+      <c r="D2739">
+        <v>19615.609375</v>
+      </c>
+      <c r="E2739">
+        <v>19742.4609375</v>
+      </c>
+      <c r="F2739">
+        <v>2589100000</v>
+      </c>
+      <c r="G2739" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2740">
+      <c r="A2740" s="2">
+        <v>45631</v>
+      </c>
+      <c r="B2740">
+        <v>19578.66015625</v>
+      </c>
+      <c r="C2740">
+        <v>19642.73046875</v>
+      </c>
+      <c r="D2740">
+        <v>19466.689453125</v>
+      </c>
+      <c r="E2740">
+        <v>19560.439453125</v>
+      </c>
+      <c r="F2740">
+        <v>2007500000</v>
+      </c>
+      <c r="G2740" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2741">
+      <c r="A2741" s="2">
+        <v>45632</v>
+      </c>
+      <c r="B2741">
+        <v>19611.619140625</v>
+      </c>
+      <c r="C2741">
+        <v>19934.720703125</v>
+      </c>
+      <c r="D2741">
+        <v>19566.2890625</v>
+      </c>
+      <c r="E2741">
+        <v>19865.849609375</v>
+      </c>
+      <c r="F2741">
+        <v>3493300000</v>
+      </c>
+      <c r="G2741" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2742">
+      <c r="A2742" s="2">
+        <v>45635</v>
+      </c>
+      <c r="B2742">
+        <v>19732.279296875</v>
+      </c>
+      <c r="C2742">
+        <v>20433.73046875</v>
+      </c>
+      <c r="D2742">
+        <v>19695.509765625</v>
+      </c>
+      <c r="E2742">
+        <v>20414.08984375</v>
+      </c>
+      <c r="F2742">
+        <v>3960600000</v>
+      </c>
+      <c r="G2742" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2743">
+      <c r="A2743" s="2">
+        <v>45636</v>
+      </c>
+      <c r="B2743">
+        <v>21070.05078125</v>
+      </c>
+      <c r="C2743">
+        <v>21070.05078125</v>
+      </c>
+      <c r="D2743">
+        <v>20308.859375</v>
+      </c>
+      <c r="E2743">
+        <v>20311.279296875</v>
+      </c>
+      <c r="F2743">
+        <v>4472400000</v>
+      </c>
+      <c r="G2743" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2744">
+      <c r="A2744" s="2">
+        <v>45637</v>
+      </c>
+      <c r="B2744">
+        <v>20404.5</v>
+      </c>
+      <c r="C2744">
+        <v>20481.369140625</v>
+      </c>
+      <c r="D2744">
+        <v>20100.0703125</v>
+      </c>
+      <c r="E2744">
+        <v>20155.05078125</v>
+      </c>
+      <c r="F2744">
+        <v>2300100000</v>
+      </c>
+      <c r="G2744" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2745">
+      <c r="A2745" s="2">
+        <v>45638</v>
+      </c>
+      <c r="B2745">
+        <v>20213.240234375</v>
+      </c>
+      <c r="C2745">
+        <v>20546.439453125</v>
+      </c>
+      <c r="D2745">
+        <v>20121.470703125</v>
+      </c>
+      <c r="E2745">
+        <v>20397.05078125</v>
+      </c>
+      <c r="F2745">
+        <v>2777100000</v>
+      </c>
+      <c r="G2745" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2746">
+      <c r="A2746" s="2">
+        <v>45639</v>
+      </c>
+      <c r="B2746">
+        <v>20238.2109375</v>
+      </c>
+      <c r="C2746">
+        <v>20238.2109375</v>
+      </c>
+      <c r="D2746">
+        <v>19927.26953125</v>
+      </c>
+      <c r="E2746">
+        <v>19971.240234375</v>
+      </c>
+      <c r="F2746">
+        <v>3106800000</v>
+      </c>
+      <c r="G2746" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2747">
+      <c r="A2747" s="2">
+        <v>45642</v>
+      </c>
+      <c r="B2747">
+        <v>19947.23046875</v>
+      </c>
+      <c r="C2747">
+        <v>20049.2109375</v>
+      </c>
+      <c r="D2747">
+        <v>19726.150390625</v>
+      </c>
+      <c r="E2747">
+        <v>19795.490234375</v>
+      </c>
+      <c r="F2747">
+        <v>2699600000</v>
+      </c>
+      <c r="G2747" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2748">
+      <c r="A2748" s="2">
+        <v>45643</v>
+      </c>
+      <c r="B2748">
+        <v>19678.029296875</v>
+      </c>
+      <c r="C2748">
+        <v>19930.830078125</v>
+      </c>
+      <c r="D2748">
+        <v>19620.630859375</v>
+      </c>
+      <c r="E2748">
+        <v>19700.48046875</v>
+      </c>
+      <c r="F2748">
+        <v>2787100000</v>
+      </c>
+      <c r="G2748" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2749">
+      <c r="A2749" s="2">
+        <v>45644</v>
+      </c>
+      <c r="B2749">
+        <v>19884.5390625</v>
+      </c>
+      <c r="C2749">
+        <v>19953.529296875</v>
+      </c>
+      <c r="D2749">
+        <v>19802.220703125</v>
+      </c>
+      <c r="E2749">
+        <v>19864.55078125</v>
+      </c>
+      <c r="F2749">
+        <v>2288100000</v>
+      </c>
+      <c r="G2749" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2750">
+      <c r="A2750" s="2">
+        <v>45645</v>
+      </c>
+      <c r="B2750">
+        <v>19610.099609375</v>
+      </c>
+      <c r="C2750">
+        <v>19849.029296875</v>
+      </c>
+      <c r="D2750">
+        <v>19591.490234375</v>
+      </c>
+      <c r="E2750">
+        <v>19752.509765625</v>
+      </c>
+      <c r="F2750">
+        <v>2385000000</v>
+      </c>
+      <c r="G2750" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2751">
+      <c r="A2751" s="2">
+        <v>45646</v>
+      </c>
+      <c r="B2751">
+        <v>19697.060546875</v>
+      </c>
+      <c r="C2751">
+        <v>19875.900390625</v>
+      </c>
+      <c r="D2751">
+        <v>19692.6796875</v>
+      </c>
+      <c r="E2751">
+        <v>19720.69921875</v>
+      </c>
+      <c r="F2751">
+        <v>3501200000</v>
+      </c>
+      <c r="G2751" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2752">
+      <c r="A2752" s="2">
+        <v>45649</v>
+      </c>
+      <c r="B2752">
+        <v>19843.650390625</v>
+      </c>
+      <c r="C2752">
+        <v>19937.390625</v>
+      </c>
+      <c r="D2752">
+        <v>19746.4609375</v>
+      </c>
+      <c r="E2752">
+        <v>19883.130859375</v>
+      </c>
+      <c r="F2752">
+        <v>3403600000</v>
+      </c>
+      <c r="G2752" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2753">
+      <c r="A2753" s="2">
+        <v>45650</v>
+      </c>
+      <c r="B2753">
+        <v>19911.5</v>
+      </c>
+      <c r="C2753">
+        <v>20165.4609375</v>
+      </c>
+      <c r="D2753">
+        <v>19908.5703125</v>
+      </c>
+      <c r="E2753">
+        <v>20098.2890625</v>
+      </c>
+      <c r="F2753">
+        <v>2206500000</v>
+      </c>
+      <c r="G2753" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2754">
+      <c r="A2754" s="2">
+        <v>45653</v>
+      </c>
+      <c r="B2754">
+        <v>20083.439453125</v>
+      </c>
+      <c r="C2754">
+        <v>20184.880859375</v>
+      </c>
+      <c r="D2754">
+        <v>20009.94921875</v>
+      </c>
+      <c r="E2754">
+        <v>20090.4609375</v>
+      </c>
+      <c r="F2754">
+        <v>2906600000</v>
+      </c>
+      <c r="G2754" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2755">
+      <c r="A2755" s="2">
+        <v>45656</v>
+      </c>
+      <c r="B2755">
+        <v>20124.75</v>
+      </c>
+      <c r="C2755">
+        <v>20193.08984375</v>
+      </c>
+      <c r="D2755">
+        <v>19968.0703125</v>
+      </c>
+      <c r="E2755">
+        <v>20041.419921875</v>
+      </c>
+      <c r="F2755">
+        <v>2724900000</v>
+      </c>
+      <c r="G2755" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2756">
+      <c r="A2756" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B2756">
+        <v>20003.359375</v>
+      </c>
+      <c r="C2756">
+        <v>20180.400390625</v>
+      </c>
+      <c r="D2756">
+        <v>20003.359375</v>
+      </c>
+      <c r="E2756">
+        <v>20059.94921875</v>
+      </c>
+      <c r="F2756">
+        <v>1722100000</v>
+      </c>
+      <c r="G2756" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2757">
+      <c r="A2757" s="2">
+        <v>45659</v>
+      </c>
+      <c r="B2757">
+        <v>19932.80078125</v>
+      </c>
+      <c r="C2757">
+        <v>19932.80078125</v>
+      </c>
+      <c r="D2757">
+        <v>19542.98046875</v>
+      </c>
+      <c r="E2757">
+        <v>19623.3203125</v>
+      </c>
+      <c r="F2757">
+        <v>4033400000</v>
+      </c>
+      <c r="G2757" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2758">
+      <c r="A2758" s="2">
+        <v>45660</v>
+      </c>
+      <c r="B2758">
+        <v>19708.740234375</v>
+      </c>
+      <c r="C2758">
+        <v>19891.859375</v>
+      </c>
+      <c r="D2758">
+        <v>19634.0703125</v>
+      </c>
+      <c r="E2758">
+        <v>19760.26953125</v>
+      </c>
+      <c r="F2758">
+        <v>3393800000</v>
+      </c>
+      <c r="G2758" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2759">
+      <c r="A2759" s="2">
+        <v>45663</v>
+      </c>
+      <c r="B2759">
+        <v>19848.7109375</v>
+      </c>
+      <c r="C2759">
+        <v>19851.55078125</v>
+      </c>
+      <c r="D2759">
+        <v>19627.83984375</v>
+      </c>
+      <c r="E2759">
+        <v>19688.2890625</v>
+      </c>
+      <c r="F2759">
+        <v>2465700000</v>
+      </c>
+      <c r="G2759" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2760">
+      <c r="A2760" s="2">
+        <v>45664</v>
+      </c>
+      <c r="B2760">
+        <v>19501.44921875</v>
+      </c>
+      <c r="C2760">
+        <v>19668.650390625</v>
+      </c>
+      <c r="D2760">
+        <v>19252.609375</v>
+      </c>
+      <c r="E2760">
+        <v>19447.580078125</v>
+      </c>
+      <c r="F2760">
+        <v>3581000000</v>
+      </c>
+      <c r="G2760" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2761">
+      <c r="A2761" s="2">
+        <v>45665</v>
+      </c>
+      <c r="B2761">
+        <v>19390.759765625</v>
+      </c>
+      <c r="C2761">
+        <v>19483.58984375</v>
+      </c>
+      <c r="D2761">
+        <v>19111.5390625</v>
+      </c>
+      <c r="E2761">
+        <v>19279.83984375</v>
+      </c>
+      <c r="F2761">
+        <v>3232400000</v>
+      </c>
+      <c r="G2761" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2762">
+      <c r="A2762" s="2">
+        <v>45666</v>
+      </c>
+      <c r="B2762">
+        <v>19254.380859375</v>
+      </c>
+      <c r="C2762">
+        <v>19405.740234375</v>
+      </c>
+      <c r="D2762">
+        <v>19227.73046875</v>
+      </c>
+      <c r="E2762">
+        <v>19240.890625</v>
+      </c>
+      <c r="F2762">
+        <v>2456500000</v>
+      </c>
+      <c r="G2762" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2763">
+      <c r="A2763" s="2">
+        <v>45667</v>
+      </c>
+      <c r="B2763">
+        <v>19328.0703125</v>
+      </c>
+      <c r="C2763">
+        <v>19370.490234375</v>
+      </c>
+      <c r="D2763">
+        <v>19036.640625</v>
+      </c>
+      <c r="E2763">
+        <v>19064.2890625</v>
+      </c>
+      <c r="F2763">
+        <v>2606700000</v>
+      </c>
+      <c r="G2763" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2764">
+      <c r="A2764" s="2">
+        <v>45670</v>
+      </c>
+      <c r="B2764">
+        <v>18918.150390625</v>
+      </c>
+      <c r="C2764">
+        <v>18929.119140625</v>
+      </c>
+      <c r="D2764">
+        <v>18671.490234375</v>
+      </c>
+      <c r="E2764">
+        <v>18874.140625</v>
+      </c>
+      <c r="F2764">
+        <v>2754800000</v>
+      </c>
+      <c r="G2764" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2765">
+      <c r="A2765" s="2">
+        <v>45671</v>
+      </c>
+      <c r="B2765">
+        <v>18901.560546875</v>
+      </c>
+      <c r="C2765">
+        <v>19318.359375</v>
+      </c>
+      <c r="D2765">
+        <v>18901.560546875</v>
+      </c>
+      <c r="E2765">
+        <v>19219.779296875</v>
+      </c>
+      <c r="F2765">
+        <v>2838600000</v>
+      </c>
+      <c r="G2765" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2766">
+      <c r="A2766" s="2">
+        <v>45672</v>
+      </c>
+      <c r="B2766">
+        <v>19149.939453125</v>
+      </c>
+      <c r="C2766">
+        <v>19319.220703125</v>
+      </c>
+      <c r="D2766">
+        <v>19149.939453125</v>
+      </c>
+      <c r="E2766">
+        <v>19286.0703125</v>
+      </c>
+      <c r="F2766">
+        <v>2451900000</v>
+      </c>
+      <c r="G2766" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2767">
+      <c r="A2767" s="2">
+        <v>45673</v>
+      </c>
+      <c r="B2767">
+        <v>19454.919921875</v>
+      </c>
+      <c r="C2767">
+        <v>19664.390625</v>
+      </c>
+      <c r="D2767">
+        <v>19345.189453125</v>
+      </c>
+      <c r="E2767">
+        <v>19522.890625</v>
+      </c>
+      <c r="F2767">
+        <v>2710700000</v>
+      </c>
+      <c r="G2767" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2768">
+      <c r="A2768" s="2">
+        <v>45674</v>
+      </c>
+      <c r="B2768">
+        <v>19499.099609375</v>
+      </c>
+      <c r="C2768">
+        <v>19640.369140625</v>
+      </c>
+      <c r="D2768">
+        <v>19423.69921875</v>
+      </c>
+      <c r="E2768">
+        <v>19584.060546875</v>
+      </c>
+      <c r="F2768">
+        <v>2435800000</v>
+      </c>
+      <c r="G2768" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2769">
+      <c r="A2769" s="2">
+        <v>45677</v>
+      </c>
+      <c r="B2769">
+        <v>19804.640625</v>
+      </c>
+      <c r="C2769">
+        <v>20093.650390625</v>
+      </c>
+      <c r="D2769">
+        <v>19786.73046875</v>
+      </c>
+      <c r="E2769">
+        <v>19925.810546875</v>
+      </c>
+      <c r="F2769">
+        <v>2764400000</v>
+      </c>
+      <c r="G2769" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2770">
+      <c r="A2770" s="2">
+        <v>45678</v>
+      </c>
+      <c r="B2770">
+        <v>20128.33984375</v>
+      </c>
+      <c r="C2770">
+        <v>20205.25</v>
+      </c>
+      <c r="D2770">
+        <v>19920.310546875</v>
+      </c>
+      <c r="E2770">
+        <v>20106.55078125</v>
+      </c>
+      <c r="F2770">
+        <v>2412100000</v>
+      </c>
+      <c r="G2770" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2771">
+      <c r="A2771" s="2">
+        <v>45679</v>
+      </c>
+      <c r="B2771">
+        <v>19997.08984375</v>
+      </c>
+      <c r="C2771">
+        <v>20022.33984375</v>
+      </c>
+      <c r="D2771">
+        <v>19733.2109375</v>
+      </c>
+      <c r="E2771">
+        <v>19778.76953125</v>
+      </c>
+      <c r="F2771">
+        <v>2282100000</v>
+      </c>
+      <c r="G2771" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2772">
+      <c r="A2772" s="2">
+        <v>45680</v>
+      </c>
+      <c r="B2772">
+        <v>19881.3203125</v>
+      </c>
+      <c r="C2772">
+        <v>20044.060546875</v>
+      </c>
+      <c r="D2772">
+        <v>19644.830078125</v>
+      </c>
+      <c r="E2772">
+        <v>19700.560546875</v>
+      </c>
+      <c r="F2772">
+        <v>3059700000</v>
+      </c>
+      <c r="G2772" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2773">
+      <c r="A2773" s="2">
+        <v>45681</v>
+      </c>
+      <c r="B2773">
+        <v>19842.849609375</v>
+      </c>
+      <c r="C2773">
+        <v>20144</v>
+      </c>
+      <c r="D2773">
+        <v>19768.130859375</v>
+      </c>
+      <c r="E2773">
+        <v>20066.189453125</v>
+      </c>
+      <c r="F2773">
+        <v>3209800000</v>
+      </c>
+      <c r="G2773" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2774">
+      <c r="A2774" s="2">
+        <v>45684</v>
+      </c>
+      <c r="B2774">
+        <v>20118.01953125</v>
+      </c>
+      <c r="C2774">
+        <v>20296.939453125</v>
+      </c>
+      <c r="D2774">
+        <v>20118.01953125</v>
+      </c>
+      <c r="E2774">
+        <v>20197.76953125</v>
+      </c>
+      <c r="F2774">
+        <v>2751200000</v>
+      </c>
+      <c r="G2774" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2775">
+      <c r="A2775" s="2">
+        <v>45685</v>
+      </c>
+      <c r="B2775">
+        <v>20337.4609375</v>
+      </c>
+      <c r="C2775">
+        <v>20337.4609375</v>
+      </c>
+      <c r="D2775">
+        <v>20165.73046875</v>
+      </c>
+      <c r="E2775">
+        <v>20225.109375</v>
+      </c>
+      <c r="F2775">
+        <v>945200000</v>
+      </c>
+      <c r="G2775" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2776">
+      <c r="A2776" s="2">
+        <v>45691</v>
+      </c>
+      <c r="B2776">
+        <v>20048.869140625</v>
+      </c>
+      <c r="C2776">
+        <v>20222</v>
+      </c>
+      <c r="D2776">
+        <v>19764.669921875</v>
+      </c>
+      <c r="E2776">
+        <v>20217.259765625</v>
+      </c>
+      <c r="F2776">
+        <v>2224400000</v>
+      </c>
+      <c r="G2776" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2777">
+      <c r="A2777" s="2">
+        <v>45692</v>
+      </c>
+      <c r="B2777">
+        <v>20488.2890625</v>
+      </c>
+      <c r="C2777">
+        <v>20885.490234375</v>
+      </c>
+      <c r="D2777">
+        <v>20297.640625</v>
+      </c>
+      <c r="E2777">
+        <v>20789.9609375</v>
+      </c>
+      <c r="F2777">
+        <v>2854000000</v>
+      </c>
+      <c r="G2777" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2778">
+      <c r="A2778" s="2">
+        <v>45693</v>
+      </c>
+      <c r="B2778">
+        <v>20827.76953125</v>
+      </c>
+      <c r="C2778">
+        <v>20827.76953125</v>
+      </c>
+      <c r="D2778">
+        <v>20417.390625</v>
+      </c>
+      <c r="E2778">
+        <v>20597.08984375</v>
+      </c>
+      <c r="F2778">
+        <v>2967900000</v>
+      </c>
+      <c r="G2778" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2779">
+      <c r="A2779" s="2">
+        <v>45694</v>
+      </c>
+      <c r="B2779">
+        <v>20598.98046875</v>
+      </c>
+      <c r="C2779">
+        <v>20891.619140625</v>
+      </c>
+      <c r="D2779">
+        <v>20532.060546875</v>
+      </c>
+      <c r="E2779">
+        <v>20891.619140625</v>
+      </c>
+      <c r="F2779">
+        <v>2957400000</v>
+      </c>
+      <c r="G2779" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2780">
+      <c r="A2780" s="2">
+        <v>45695</v>
+      </c>
+      <c r="B2780">
+        <v>20858.51953125</v>
+      </c>
+      <c r="C2780">
+        <v>21213.69921875</v>
+      </c>
+      <c r="D2780">
+        <v>20806.099609375</v>
+      </c>
+      <c r="E2780">
+        <v>21133.5390625</v>
+      </c>
+      <c r="F2780">
+        <v>4125600000</v>
+      </c>
+      <c r="G2780" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2781">
+      <c r="A2781" s="2">
+        <v>45698</v>
+      </c>
+      <c r="B2781">
+        <v>21223.609375</v>
+      </c>
+      <c r="C2781">
+        <v>21539.630859375</v>
+      </c>
+      <c r="D2781">
+        <v>21223.609375</v>
+      </c>
+      <c r="E2781">
+        <v>21521.98046875</v>
+      </c>
+      <c r="F2781">
+        <v>3736100000</v>
+      </c>
+      <c r="G2781" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2782">
+      <c r="A2782" s="2">
+        <v>45699</v>
+      </c>
+      <c r="B2782">
+        <v>21656.8203125</v>
+      </c>
+      <c r="C2782">
+        <v>21682.41015625</v>
+      </c>
+      <c r="D2782">
+        <v>21279.369140625</v>
+      </c>
+      <c r="E2782">
+        <v>21294.859375</v>
+      </c>
+      <c r="F2782">
+        <v>3583400000</v>
+      </c>
+      <c r="G2782" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2783">
+      <c r="A2783" s="2">
+        <v>45700</v>
+      </c>
+      <c r="B2783">
+        <v>21526.41015625</v>
+      </c>
+      <c r="C2783">
+        <v>21858.830078125</v>
+      </c>
+      <c r="D2783">
+        <v>21411.08984375</v>
+      </c>
+      <c r="E2783">
+        <v>21857.919921875</v>
+      </c>
+      <c r="F2783">
+        <v>4873000000</v>
+      </c>
+      <c r="G2783" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2784">
+      <c r="A2784" s="2">
+        <v>45701</v>
+      </c>
+      <c r="B2784">
+        <v>21958.689453125</v>
+      </c>
+      <c r="C2784">
+        <v>22523.5703125</v>
+      </c>
+      <c r="D2784">
+        <v>21735.560546875</v>
+      </c>
+      <c r="E2784">
+        <v>21814.369140625</v>
+      </c>
+      <c r="F2784">
+        <v>6487200000</v>
+      </c>
+      <c r="G2784" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2785">
+      <c r="A2785" s="2">
+        <v>45702</v>
+      </c>
+      <c r="B2785">
+        <v>22027.0703125</v>
+      </c>
+      <c r="C2785">
+        <v>22620.330078125</v>
+      </c>
+      <c r="D2785">
+        <v>22027.0703125</v>
+      </c>
+      <c r="E2785">
+        <v>22620.330078125</v>
+      </c>
+      <c r="F2785">
+        <v>6057000000</v>
+      </c>
+      <c r="G2785" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2786">
+      <c r="A2786" s="2">
+        <v>45705</v>
+      </c>
+      <c r="B2786">
+        <v>22755.060546875</v>
+      </c>
+      <c r="C2786">
+        <v>22977.25</v>
+      </c>
+      <c r="D2786">
+        <v>22319.3203125</v>
+      </c>
+      <c r="E2786">
+        <v>22616.23046875</v>
+      </c>
+      <c r="F2786">
+        <v>6736200000</v>
+      </c>
+      <c r="G2786" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2787">
+      <c r="A2787" s="2">
+        <v>45706</v>
+      </c>
+      <c r="B2787">
+        <v>22664.73046875</v>
+      </c>
+      <c r="C2787">
+        <v>23141.41015625</v>
+      </c>
+      <c r="D2787">
+        <v>22608.1796875</v>
+      </c>
+      <c r="E2787">
+        <v>22976.810546875</v>
+      </c>
+      <c r="F2787">
+        <v>5222600000</v>
+      </c>
+      <c r="G2787" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2788">
+      <c r="A2788" s="2">
+        <v>45707</v>
+      </c>
+      <c r="B2788">
+        <v>22777.4609375</v>
+      </c>
+      <c r="C2788">
+        <v>22975.33984375</v>
+      </c>
+      <c r="D2788">
+        <v>22649.490234375</v>
+      </c>
+      <c r="E2788">
+        <v>22944.240234375</v>
+      </c>
+      <c r="F2788">
+        <v>4080400000</v>
+      </c>
+      <c r="G2788" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2789">
+      <c r="A2789" s="2">
+        <v>45708</v>
+      </c>
+      <c r="B2789">
+        <v>22716.7109375</v>
+      </c>
+      <c r="C2789">
+        <v>22849.66015625</v>
+      </c>
+      <c r="D2789">
+        <v>22436.130859375</v>
+      </c>
+      <c r="E2789">
+        <v>22576.98046875</v>
+      </c>
+      <c r="F2789">
+        <v>4200400000</v>
+      </c>
+      <c r="G2789" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2790">
+      <c r="A2790" s="2">
+        <v>45709</v>
+      </c>
+      <c r="B2790">
+        <v>23090.029296875</v>
+      </c>
+      <c r="C2790">
+        <v>23477.919921875</v>
+      </c>
+      <c r="D2790">
+        <v>22901.689453125</v>
+      </c>
+      <c r="E2790">
+        <v>23477.919921875</v>
+      </c>
+      <c r="F2790">
+        <v>6167300000</v>
+      </c>
+      <c r="G2790" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2791">
+      <c r="A2791" s="2">
+        <v>45712</v>
+      </c>
+      <c r="B2791">
+        <v>23472.140625</v>
+      </c>
+      <c r="C2791">
+        <v>23688.44921875</v>
+      </c>
+      <c r="D2791">
+        <v>23221.5703125</v>
+      </c>
+      <c r="E2791">
+        <v>23341.609375</v>
+      </c>
+      <c r="F2791">
+        <v>5264600000</v>
+      </c>
+      <c r="G2791" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2792">
+      <c r="A2792" s="2">
+        <v>45713</v>
+      </c>
+      <c r="B2792">
+        <v>22716.48046875</v>
+      </c>
+      <c r="C2792">
+        <v>23248.51953125</v>
+      </c>
+      <c r="D2792">
+        <v>22716.48046875</v>
+      </c>
+      <c r="E2792">
+        <v>23034.01953125</v>
+      </c>
+      <c r="F2792">
+        <v>4449800000</v>
+      </c>
+      <c r="G2792" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2793">
+      <c r="A2793" s="2">
+        <v>45714</v>
+      </c>
+      <c r="B2793">
+        <v>23238.33984375</v>
+      </c>
+      <c r="C2793">
+        <v>23973.169921875</v>
+      </c>
+      <c r="D2793">
+        <v>23238.33984375</v>
+      </c>
+      <c r="E2793">
+        <v>23787.9296875</v>
+      </c>
+      <c r="F2793">
+        <v>5138100000</v>
+      </c>
+      <c r="G2793" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2794">
+      <c r="A2794" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B2794">
+        <v>23783.75</v>
+      </c>
+      <c r="C2794">
+        <v>24076.529296875</v>
+      </c>
+      <c r="D2794">
+        <v>23441.740234375</v>
+      </c>
+      <c r="E2794">
+        <v>23718.2890625</v>
+      </c>
+      <c r="F2794">
+        <v>6257000000</v>
+      </c>
+      <c r="G2794" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2795">
+      <c r="A2795" s="2">
+        <v>45716</v>
+      </c>
+      <c r="B2795">
+        <v>23616.1796875</v>
+      </c>
+      <c r="C2795">
+        <v>23616.1796875</v>
+      </c>
+      <c r="D2795">
+        <v>22798.33984375</v>
+      </c>
+      <c r="E2795">
+        <v>22941.3203125</v>
+      </c>
+      <c r="F2795">
+        <v>6578300000</v>
+      </c>
+      <c r="G2795" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2796">
+      <c r="A2796" s="2">
+        <v>45719</v>
+      </c>
+      <c r="B2796">
+        <v>23135.119140625</v>
+      </c>
+      <c r="C2796">
+        <v>23405.98046875</v>
+      </c>
+      <c r="D2796">
+        <v>22861.75</v>
+      </c>
+      <c r="E2796">
+        <v>23006.26953125</v>
+      </c>
+      <c r="F2796">
+        <v>4338200000</v>
+      </c>
+      <c r="G2796" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2797">
+      <c r="A2797" s="2">
+        <v>45720</v>
+      </c>
+      <c r="B2797">
+        <v>22678.25</v>
+      </c>
+      <c r="C2797">
+        <v>23051.009765625</v>
+      </c>
+      <c r="D2797">
+        <v>22547.529296875</v>
+      </c>
+      <c r="E2797">
+        <v>22941.76953125</v>
+      </c>
+      <c r="F2797">
+        <v>3994800000</v>
+      </c>
+      <c r="G2797" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2798">
+      <c r="A2798" s="2">
+        <v>45721</v>
+      </c>
+      <c r="B2798">
+        <v>23200.419921875</v>
+      </c>
+      <c r="C2798">
+        <v>23636.650390625</v>
+      </c>
+      <c r="D2798">
+        <v>23090.630859375</v>
+      </c>
+      <c r="E2798">
+        <v>23594.2109375</v>
+      </c>
+      <c r="F2798">
+        <v>4077700000</v>
+      </c>
+      <c r="G2798" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2799">
+      <c r="A2799" s="2">
+        <v>45722</v>
+      </c>
+      <c r="B2799">
+        <v>23987.08984375</v>
+      </c>
+      <c r="C2799">
+        <v>24410.9296875</v>
+      </c>
+      <c r="D2799">
+        <v>23987.08984375</v>
+      </c>
+      <c r="E2799">
+        <v>24369.7109375</v>
+      </c>
+      <c r="F2799">
+        <v>4886300000</v>
+      </c>
+      <c r="G2799" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2800">
+      <c r="A2800" s="2">
+        <v>45723</v>
+      </c>
+      <c r="B2800">
+        <v>24182.01953125</v>
+      </c>
+      <c r="C2800">
+        <v>24669.619140625</v>
+      </c>
+      <c r="D2800">
+        <v>24065.009765625</v>
+      </c>
+      <c r="E2800">
+        <v>24231.30078125</v>
+      </c>
+      <c r="F2800">
+        <v>4830800000</v>
+      </c>
+      <c r="G2800" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2801">
+      <c r="A2801" s="2">
+        <v>45726</v>
+      </c>
+      <c r="B2801">
+        <v>24115.98046875</v>
+      </c>
+      <c r="C2801">
+        <v>24292.80078125</v>
+      </c>
+      <c r="D2801">
+        <v>23632.419921875</v>
+      </c>
+      <c r="E2801">
+        <v>23783.490234375</v>
+      </c>
+      <c r="F2801">
+        <v>3684200000</v>
+      </c>
+      <c r="G2801" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2802">
+      <c r="A2802" s="2">
+        <v>45727</v>
+      </c>
+      <c r="B2802">
+        <v>23274.859375</v>
+      </c>
+      <c r="C2802">
+        <v>23858.609375</v>
+      </c>
+      <c r="D2802">
+        <v>23238.359375</v>
+      </c>
+      <c r="E2802">
+        <v>23782.140625</v>
+      </c>
+      <c r="F2802">
+        <v>3554100000</v>
+      </c>
+      <c r="G2802" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2803">
+      <c r="A2803" s="2">
+        <v>45728</v>
+      </c>
+      <c r="B2803">
+        <v>23859.23046875</v>
+      </c>
+      <c r="C2803">
+        <v>23962.029296875</v>
+      </c>
+      <c r="D2803">
+        <v>23363.98046875</v>
+      </c>
+      <c r="E2803">
+        <v>23600.310546875</v>
+      </c>
+      <c r="F2803">
+        <v>3632700000</v>
+      </c>
+      <c r="G2803" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2804">
+      <c r="A2804" s="2">
+        <v>45729</v>
+      </c>
+      <c r="B2804">
+        <v>23616.330078125</v>
+      </c>
+      <c r="C2804">
+        <v>23712.609375</v>
+      </c>
+      <c r="D2804">
+        <v>23198.73046875</v>
+      </c>
+      <c r="E2804">
+        <v>23462.650390625</v>
+      </c>
+      <c r="F2804">
+        <v>3231300000</v>
+      </c>
+      <c r="G2804" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2805">
+      <c r="A2805" s="2">
+        <v>45730</v>
+      </c>
+      <c r="B2805">
+        <v>23653.330078125</v>
+      </c>
+      <c r="C2805">
+        <v>24113.529296875</v>
+      </c>
+      <c r="D2805">
+        <v>23454.490234375</v>
+      </c>
+      <c r="E2805">
+        <v>23959.98046875</v>
+      </c>
+      <c r="F2805">
+        <v>4260100000</v>
+      </c>
+      <c r="G2805" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2806">
+      <c r="A2806" s="2">
+        <v>45733</v>
+      </c>
+      <c r="B2806">
+        <v>24226</v>
+      </c>
+      <c r="C2806">
+        <v>24352.470703125</v>
+      </c>
+      <c r="D2806">
+        <v>24077.150390625</v>
+      </c>
+      <c r="E2806">
+        <v>24145.5703125</v>
+      </c>
+      <c r="F2806">
+        <v>3284200000</v>
+      </c>
+      <c r="G2806" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2807">
+      <c r="A2807" s="2">
+        <v>45734</v>
+      </c>
+      <c r="B2807">
+        <v>24679.349609375</v>
+      </c>
+      <c r="C2807">
+        <v>24745.130859375</v>
+      </c>
+      <c r="D2807">
+        <v>24475.259765625</v>
+      </c>
+      <c r="E2807">
+        <v>24740.5703125</v>
+      </c>
+      <c r="F2807">
+        <v>3930700000</v>
+      </c>
+      <c r="G2807" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2808">
+      <c r="A2808" s="2">
+        <v>45735</v>
+      </c>
+      <c r="B2808">
+        <v>24697.630859375</v>
+      </c>
+      <c r="C2808">
+        <v>24874.390625</v>
+      </c>
+      <c r="D2808">
+        <v>24601.73046875</v>
+      </c>
+      <c r="E2808">
+        <v>24771.140625</v>
+      </c>
+      <c r="F2808">
+        <v>3593000000</v>
+      </c>
+      <c r="G2808" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2809">
+      <c r="A2809" s="2">
+        <v>45736</v>
+      </c>
+      <c r="B2809">
+        <v>24753.150390625</v>
+      </c>
+      <c r="C2809">
+        <v>24753.150390625</v>
+      </c>
+      <c r="D2809">
+        <v>24186.689453125</v>
+      </c>
+      <c r="E2809">
+        <v>24219.94921875</v>
+      </c>
+      <c r="F2809">
+        <v>4102200000</v>
+      </c>
+      <c r="G2809" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2810">
+      <c r="A2810" s="2">
+        <v>45737</v>
+      </c>
+      <c r="B2810">
+        <v>24109.0703125</v>
+      </c>
+      <c r="C2810">
+        <v>24230.720703125</v>
+      </c>
+      <c r="D2810">
+        <v>23577.779296875</v>
+      </c>
+      <c r="E2810">
+        <v>23689.720703125</v>
+      </c>
+      <c r="F2810">
+        <v>4931000000</v>
+      </c>
+      <c r="G2810" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2811">
+      <c r="A2811" s="2">
+        <v>45740</v>
+      </c>
+      <c r="B2811">
+        <v>23749.580078125</v>
+      </c>
+      <c r="C2811">
+        <v>23967.509765625</v>
+      </c>
+      <c r="D2811">
+        <v>23531.19921875</v>
+      </c>
+      <c r="E2811">
+        <v>23905.560546875</v>
+      </c>
+      <c r="F2811">
+        <v>3386100000</v>
+      </c>
+      <c r="G2811" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2812">
+      <c r="A2812" s="2">
+        <v>45741</v>
+      </c>
+      <c r="B2812">
+        <v>23643.3203125</v>
+      </c>
+      <c r="C2812">
+        <v>23747.3203125</v>
+      </c>
+      <c r="D2812">
+        <v>23321.669921875</v>
+      </c>
+      <c r="E2812">
+        <v>23344.25</v>
+      </c>
+      <c r="F2812">
+        <v>4234400000</v>
+      </c>
+      <c r="G2812" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2813">
+      <c r="A2813" s="2">
+        <v>45742</v>
+      </c>
+      <c r="B2813">
+        <v>23460.310546875</v>
+      </c>
+      <c r="C2813">
+        <v>23596.849609375</v>
+      </c>
+      <c r="D2813">
+        <v>23350.73046875</v>
+      </c>
+      <c r="E2813">
+        <v>23483.3203125</v>
+      </c>
+      <c r="F2813">
+        <v>3116600000</v>
+      </c>
+      <c r="G2813" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2814">
+      <c r="A2814" s="2">
+        <v>45743</v>
+      </c>
+      <c r="B2814">
+        <v>23543.859375</v>
+      </c>
+      <c r="C2814">
+        <v>23865.619140625</v>
+      </c>
+      <c r="D2814">
+        <v>23372.359375</v>
+      </c>
+      <c r="E2814">
+        <v>23578.80078125</v>
+      </c>
+      <c r="F2814">
+        <v>3790100000</v>
+      </c>
+      <c r="G2814" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2815">
+      <c r="A2815" s="2">
+        <v>45744</v>
+      </c>
+      <c r="B2815">
+        <v>23672.8203125</v>
+      </c>
+      <c r="C2815">
+        <v>23775.30078125</v>
+      </c>
+      <c r="D2815">
+        <v>23254.30078125</v>
+      </c>
+      <c r="E2815">
+        <v>23426.599609375</v>
+      </c>
+      <c r="F2815">
+        <v>3540800000</v>
+      </c>
+      <c r="G2815" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2816">
+      <c r="A2816" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2816">
+        <v>23207.0703125</v>
+      </c>
+      <c r="C2816">
+        <v>23399.73046875</v>
+      </c>
+      <c r="D2816">
+        <v>23002.810546875</v>
+      </c>
+      <c r="E2816">
+        <v>23119.580078125</v>
+      </c>
+      <c r="F2816">
+        <v>4752800000</v>
+      </c>
+      <c r="G2816" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2817">
+      <c r="A2817" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B2817">
+        <v>23217.109375</v>
+      </c>
+      <c r="C2817">
+        <v>23456.580078125</v>
+      </c>
+      <c r="D2817">
+        <v>23123.349609375</v>
+      </c>
+      <c r="E2817">
+        <v>23206.83984375</v>
+      </c>
+      <c r="F2817">
+        <v>3979700000</v>
+      </c>
+      <c r="G2817" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2818">
+      <c r="A2818" s="2">
+        <v>45749</v>
+      </c>
+      <c r="B2818">
+        <v>23167.310546875</v>
+      </c>
+      <c r="C2818">
+        <v>23393.029296875</v>
+      </c>
+      <c r="D2818">
+        <v>22980.9609375</v>
+      </c>
+      <c r="E2818">
+        <v>23202.529296875</v>
+      </c>
+      <c r="F2818">
+        <v>3573500000</v>
+      </c>
+      <c r="G2818" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2819">
+      <c r="A2819" s="2">
+        <v>45750</v>
+      </c>
+      <c r="B2819">
+        <v>22638.2109375</v>
+      </c>
+      <c r="C2819">
+        <v>22998.30078125</v>
+      </c>
+      <c r="D2819">
+        <v>22638.2109375</v>
+      </c>
+      <c r="E2819">
+        <v>22849.810546875</v>
+      </c>
+      <c r="F2819">
+        <v>4249900000</v>
+      </c>
+      <c r="G2819" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2820">
+      <c r="A2820" s="2">
+        <v>45754</v>
+      </c>
+      <c r="B2820">
+        <v>20730.05078125</v>
+      </c>
+      <c r="C2820">
+        <v>21047.830078125</v>
+      </c>
+      <c r="D2820">
+        <v>19706.029296875</v>
+      </c>
+      <c r="E2820">
+        <v>19828.30078125</v>
+      </c>
+      <c r="F2820">
+        <v>12686500000</v>
+      </c>
+      <c r="G2820" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2821">
+      <c r="A2821" s="2">
+        <v>45755</v>
+      </c>
+      <c r="B2821">
+        <v>20157.51953125</v>
+      </c>
+      <c r="C2821">
+        <v>20454.259765625</v>
+      </c>
+      <c r="D2821">
+        <v>19745.140625</v>
+      </c>
+      <c r="E2821">
+        <v>20127.6796875</v>
+      </c>
+      <c r="F2821">
+        <v>8420700000</v>
+      </c>
+      <c r="G2821" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2822">
+      <c r="A2822" s="2">
+        <v>45756</v>
+      </c>
+      <c r="B2822">
+        <v>19494.919921875</v>
+      </c>
+      <c r="C2822">
+        <v>20441.140625</v>
+      </c>
+      <c r="D2822">
+        <v>19260.2109375</v>
+      </c>
+      <c r="E2822">
+        <v>20264.490234375</v>
+      </c>
+      <c r="F2822">
+        <v>8672400000</v>
+      </c>
+      <c r="G2822" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2823">
+      <c r="A2823" s="2">
+        <v>45757</v>
+      </c>
+      <c r="B2823">
+        <v>20810.4296875</v>
+      </c>
+      <c r="C2823">
+        <v>21211.130859375</v>
+      </c>
+      <c r="D2823">
+        <v>20530.4296875</v>
+      </c>
+      <c r="E2823">
+        <v>20681.779296875</v>
+      </c>
+      <c r="F2823">
+        <v>6611800000</v>
+      </c>
+      <c r="G2823" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2824">
+      <c r="A2824" s="2">
+        <v>45758</v>
+      </c>
+      <c r="B2824">
+        <v>20557.490234375</v>
+      </c>
+      <c r="C2824">
+        <v>21127.369140625</v>
+      </c>
+      <c r="D2824">
+        <v>20444.0390625</v>
+      </c>
+      <c r="E2824">
+        <v>20914.689453125</v>
+      </c>
+      <c r="F2824">
+        <v>5139200000</v>
+      </c>
+      <c r="G2824" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2825">
+      <c r="A2825" s="2">
+        <v>45761</v>
+      </c>
+      <c r="B2825">
+        <v>21363.880859375</v>
+      </c>
+      <c r="C2825">
+        <v>21517.3203125</v>
+      </c>
+      <c r="D2825">
+        <v>21224.55078125</v>
+      </c>
+      <c r="E2825">
+        <v>21417.400390625</v>
+      </c>
+      <c r="F2825">
+        <v>4538300000</v>
+      </c>
+      <c r="G2825" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2826">
+      <c r="A2826" s="2">
+        <v>45762</v>
+      </c>
+      <c r="B2826">
+        <v>21603.51953125</v>
+      </c>
+      <c r="C2826">
+        <v>21603.51953125</v>
+      </c>
+      <c r="D2826">
+        <v>21297.58984375</v>
+      </c>
+      <c r="E2826">
+        <v>21466.26953125</v>
+      </c>
+      <c r="F2826">
+        <v>2942800000</v>
+      </c>
+      <c r="G2826" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2827">
+      <c r="A2827" s="2">
+        <v>45763</v>
+      </c>
+      <c r="B2827">
+        <v>21316.470703125</v>
+      </c>
+      <c r="C2827">
+        <v>21363.5703125</v>
+      </c>
+      <c r="D2827">
+        <v>20868.359375</v>
+      </c>
+      <c r="E2827">
+        <v>21056.98046875</v>
+      </c>
+      <c r="F2827">
+        <v>3441800000</v>
+      </c>
+      <c r="G2827" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2828">
+      <c r="A2828" s="2">
+        <v>45764</v>
+      </c>
+      <c r="B2828">
+        <v>21066.810546875</v>
+      </c>
+      <c r="C2828">
+        <v>21417.640625</v>
+      </c>
+      <c r="D2828">
+        <v>21039.16015625</v>
+      </c>
+      <c r="E2828">
+        <v>21395.140625</v>
+      </c>
+      <c r="F2828">
+        <v>2892800000</v>
+      </c>
+      <c r="G2828" t="inlineStr">
+        <is>
+          <t>^HSI</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/market_data.xlsx
+++ b/market_data.xlsx
@@ -47834,16 +47834,16 @@
         <v>102809.5859375</v>
       </c>
       <c r="C1950">
-        <v>103879</v>
+        <v>104326.4609375</v>
       </c>
       <c r="D1950">
         <v>101609.515625</v>
       </c>
       <c r="E1950">
-        <v>103615.265625</v>
+        <v>103857.5</v>
       </c>
       <c r="F1950">
-        <v>54071484416</v>
+        <v>54566862848</v>
       </c>
       <c r="G1950" t="inlineStr">
         <is>
